--- a/Working/HW2_BoxModel_manual/starter_code/HW_02_visualization_example.xlsx
+++ b/Working/HW2_BoxModel_manual/starter_code/HW_02_visualization_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\starl\GW_Modelling\homework-starliviakaska\Working\HW2_BoxModel_manual\starter_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318582D7-71F5-43CC-AA5A-D5E7C8BA40D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0679F4-58C1-4AAD-99C5-05FFEAF85B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{E797DA87-9764-CF40-B10D-4CBD1F0C2290}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{E797DA87-9764-CF40-B10D-4CBD1F0C2290}"/>
   </bookViews>
   <sheets>
     <sheet name="bcf_1_edited" sheetId="3" r:id="rId1"/>
@@ -724,7 +724,7 @@
                   <c:v>13.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.92</c:v>
@@ -742,7 +742,7 @@
                   <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11.67</c:v>
@@ -952,7 +952,7 @@
                   <c:v>13.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.92</c:v>
@@ -970,7 +970,7 @@
                   <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11.67</c:v>
@@ -1180,7 +1180,7 @@
                   <c:v>13.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.92</c:v>
@@ -1198,7 +1198,7 @@
                   <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11.67</c:v>
@@ -1408,7 +1408,7 @@
                   <c:v>13.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.92</c:v>
@@ -1426,7 +1426,7 @@
                   <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11.67</c:v>
@@ -1636,7 +1636,7 @@
                   <c:v>13.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.92</c:v>
@@ -1654,7 +1654,7 @@
                   <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11.67</c:v>
@@ -1864,7 +1864,7 @@
                   <c:v>13.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.92</c:v>
@@ -1882,7 +1882,7 @@
                   <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11.67</c:v>
@@ -2092,7 +2092,7 @@
                   <c:v>13.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.92</c:v>
@@ -2110,7 +2110,7 @@
                   <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11.67</c:v>
@@ -2299,7 +2299,7 @@
                   <c:v>14.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.58</c:v>
+                  <c:v>14.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14.38</c:v>
@@ -2314,13 +2314,13 @@
                   <c:v>13.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.54</c:v>
+                  <c:v>13.55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.33</c:v>
+                  <c:v>13.34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.92</c:v>
@@ -2338,13 +2338,13 @@
                   <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.67</c:v>
+                  <c:v>11.66</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.46</c:v>
+                  <c:v>11.45</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>11.25</c:v>
@@ -2359,7 +2359,7 @@
                   <c:v>10.62</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.42</c:v>
+                  <c:v>10.41</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>10.210000000000001</c:v>
@@ -2527,7 +2527,7 @@
                   <c:v>14.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.58</c:v>
+                  <c:v>14.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14.38</c:v>
@@ -2536,19 +2536,19 @@
                   <c:v>14.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.96</c:v>
+                  <c:v>13.97</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.75</c:v>
+                  <c:v>13.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.54</c:v>
+                  <c:v>13.55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.33</c:v>
+                  <c:v>13.34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.92</c:v>
@@ -2566,19 +2566,19 @@
                   <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.67</c:v>
+                  <c:v>11.66</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.46</c:v>
+                  <c:v>11.45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.25</c:v>
+                  <c:v>11.24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.04</c:v>
+                  <c:v>11.03</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>10.83</c:v>
@@ -2587,7 +2587,7 @@
                   <c:v>10.62</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.42</c:v>
+                  <c:v>10.41</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>10.210000000000001</c:v>
@@ -2752,73 +2752,73 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.79</c:v>
+                  <c:v>14.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.58</c:v>
+                  <c:v>14.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.38</c:v>
+                  <c:v>14.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.17</c:v>
+                  <c:v>14.18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.96</c:v>
+                  <c:v>13.98</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.75</c:v>
+                  <c:v>13.77</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.54</c:v>
+                  <c:v>13.56</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.33</c:v>
+                  <c:v>13.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.92</c:v>
+                  <c:v>12.93</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.71</c:v>
+                  <c:v>12.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.29</c:v>
+                  <c:v>12.28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.08</c:v>
+                  <c:v>12.07</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.86</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.67</c:v>
+                  <c:v>11.65</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.46</c:v>
+                  <c:v>11.44</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.25</c:v>
+                  <c:v>11.23</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.04</c:v>
+                  <c:v>11.02</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.83</c:v>
+                  <c:v>10.82</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.62</c:v>
+                  <c:v>10.61</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.42</c:v>
+                  <c:v>10.41</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.210000000000001</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>10</c:v>
@@ -2980,73 +2980,73 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.79</c:v>
+                  <c:v>14.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.58</c:v>
+                  <c:v>14.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.38</c:v>
+                  <c:v>14.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.17</c:v>
+                  <c:v>14.19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.96</c:v>
+                  <c:v>13.99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.75</c:v>
+                  <c:v>13.79</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.54</c:v>
+                  <c:v>13.59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.33</c:v>
+                  <c:v>13.38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.92</c:v>
+                  <c:v>12.95</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.71</c:v>
+                  <c:v>12.73</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.29</c:v>
+                  <c:v>12.27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.08</c:v>
+                  <c:v>12.05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.83</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.67</c:v>
+                  <c:v>11.62</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.46</c:v>
+                  <c:v>11.41</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.25</c:v>
+                  <c:v>11.21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.04</c:v>
+                  <c:v>11.01</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.83</c:v>
+                  <c:v>10.81</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.62</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.42</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.210000000000001</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>10</c:v>
@@ -3208,73 +3208,73 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.79</c:v>
+                  <c:v>14.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.58</c:v>
+                  <c:v>14.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.38</c:v>
+                  <c:v>14.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.17</c:v>
+                  <c:v>14.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.96</c:v>
+                  <c:v>14.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.75</c:v>
+                  <c:v>13.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.54</c:v>
+                  <c:v>13.63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.33</c:v>
+                  <c:v>13.44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.92</c:v>
+                  <c:v>13.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.71</c:v>
+                  <c:v>12.83</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.29</c:v>
+                  <c:v>12.17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.08</c:v>
+                  <c:v>11.92</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.74</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.67</c:v>
+                  <c:v>11.56</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.46</c:v>
+                  <c:v>11.37</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.25</c:v>
+                  <c:v>11.18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.04</c:v>
+                  <c:v>10.98</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.83</c:v>
+                  <c:v>10.79</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.62</c:v>
+                  <c:v>10.59</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.42</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.210000000000001</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>10</c:v>
@@ -3433,73 +3433,73 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.79</c:v>
+                  <c:v>14.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.58</c:v>
+                  <c:v>14.61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.38</c:v>
+                  <c:v>14.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.17</c:v>
+                  <c:v>14.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.96</c:v>
+                  <c:v>14.03</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.75</c:v>
+                  <c:v>13.83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.54</c:v>
+                  <c:v>13.65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.33</c:v>
+                  <c:v>13.46</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.28</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.92</c:v>
+                  <c:v>13.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.71</c:v>
+                  <c:v>12.84</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.29</c:v>
+                  <c:v>12.16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.08</c:v>
+                  <c:v>11.9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.72</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.67</c:v>
+                  <c:v>11.54</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.46</c:v>
+                  <c:v>11.35</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.25</c:v>
+                  <c:v>11.17</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.04</c:v>
+                  <c:v>10.97</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.83</c:v>
+                  <c:v>10.78</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.62</c:v>
+                  <c:v>10.59</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.42</c:v>
+                  <c:v>10.39</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.210000000000001</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>10</c:v>
@@ -3661,73 +3661,73 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.79</c:v>
+                  <c:v>14.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.58</c:v>
+                  <c:v>14.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.38</c:v>
+                  <c:v>14.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.17</c:v>
+                  <c:v>14.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.96</c:v>
+                  <c:v>14.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.75</c:v>
+                  <c:v>13.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.54</c:v>
+                  <c:v>13.63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.33</c:v>
+                  <c:v>13.44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.92</c:v>
+                  <c:v>13.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.71</c:v>
+                  <c:v>12.83</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.29</c:v>
+                  <c:v>12.17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.08</c:v>
+                  <c:v>11.92</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.74</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.67</c:v>
+                  <c:v>11.56</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.46</c:v>
+                  <c:v>11.37</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.25</c:v>
+                  <c:v>11.18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.04</c:v>
+                  <c:v>10.98</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.83</c:v>
+                  <c:v>10.79</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.62</c:v>
+                  <c:v>10.59</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.42</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.210000000000001</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>10</c:v>
@@ -3889,73 +3889,73 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.79</c:v>
+                  <c:v>14.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.58</c:v>
+                  <c:v>14.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.38</c:v>
+                  <c:v>14.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.17</c:v>
+                  <c:v>14.19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.96</c:v>
+                  <c:v>13.99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.75</c:v>
+                  <c:v>13.79</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.54</c:v>
+                  <c:v>13.59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.33</c:v>
+                  <c:v>13.38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.92</c:v>
+                  <c:v>12.95</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.71</c:v>
+                  <c:v>12.73</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.29</c:v>
+                  <c:v>12.27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.08</c:v>
+                  <c:v>12.05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.83</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.67</c:v>
+                  <c:v>11.62</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.46</c:v>
+                  <c:v>11.41</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.25</c:v>
+                  <c:v>11.21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.04</c:v>
+                  <c:v>11.01</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.83</c:v>
+                  <c:v>10.81</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.62</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.42</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.210000000000001</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>10</c:v>
@@ -4117,73 +4117,73 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.79</c:v>
+                  <c:v>14.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.58</c:v>
+                  <c:v>14.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.38</c:v>
+                  <c:v>14.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.17</c:v>
+                  <c:v>14.18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.96</c:v>
+                  <c:v>13.98</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.75</c:v>
+                  <c:v>13.77</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.54</c:v>
+                  <c:v>13.56</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.33</c:v>
+                  <c:v>13.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.92</c:v>
+                  <c:v>12.93</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.71</c:v>
+                  <c:v>12.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.29</c:v>
+                  <c:v>12.28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.08</c:v>
+                  <c:v>12.07</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.86</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.67</c:v>
+                  <c:v>11.65</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.46</c:v>
+                  <c:v>11.44</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.25</c:v>
+                  <c:v>11.23</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.04</c:v>
+                  <c:v>11.02</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.83</c:v>
+                  <c:v>10.82</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.62</c:v>
+                  <c:v>10.61</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.42</c:v>
+                  <c:v>10.41</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.210000000000001</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>10</c:v>
@@ -4348,7 +4348,7 @@
                   <c:v>14.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.58</c:v>
+                  <c:v>14.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14.38</c:v>
@@ -4357,19 +4357,19 @@
                   <c:v>14.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.96</c:v>
+                  <c:v>13.97</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.75</c:v>
+                  <c:v>13.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.54</c:v>
+                  <c:v>13.55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.33</c:v>
+                  <c:v>13.34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.92</c:v>
@@ -4387,19 +4387,19 @@
                   <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.67</c:v>
+                  <c:v>11.66</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.46</c:v>
+                  <c:v>11.45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.25</c:v>
+                  <c:v>11.24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.04</c:v>
+                  <c:v>11.03</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>10.83</c:v>
@@ -4408,7 +4408,7 @@
                   <c:v>10.62</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.42</c:v>
+                  <c:v>10.41</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>10.210000000000001</c:v>
@@ -4576,7 +4576,7 @@
                   <c:v>14.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.58</c:v>
+                  <c:v>14.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14.38</c:v>
@@ -4591,13 +4591,13 @@
                   <c:v>13.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.54</c:v>
+                  <c:v>13.55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.33</c:v>
+                  <c:v>13.34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.92</c:v>
@@ -4615,13 +4615,13 @@
                   <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.67</c:v>
+                  <c:v>11.66</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.46</c:v>
+                  <c:v>11.45</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>11.25</c:v>
@@ -4636,7 +4636,7 @@
                   <c:v>10.62</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.42</c:v>
+                  <c:v>10.41</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>10.210000000000001</c:v>
@@ -4825,7 +4825,7 @@
                   <c:v>13.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.92</c:v>
@@ -4843,7 +4843,7 @@
                   <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11.67</c:v>
@@ -5053,7 +5053,7 @@
                   <c:v>13.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.92</c:v>
@@ -5071,7 +5071,7 @@
                   <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11.67</c:v>
@@ -5281,7 +5281,7 @@
                   <c:v>13.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.92</c:v>
@@ -5299,7 +5299,7 @@
                   <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11.67</c:v>
@@ -5509,7 +5509,7 @@
                   <c:v>13.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.92</c:v>
@@ -5527,7 +5527,7 @@
                   <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11.67</c:v>
@@ -5737,7 +5737,7 @@
                   <c:v>13.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.92</c:v>
@@ -5755,7 +5755,7 @@
                   <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11.67</c:v>
@@ -5965,7 +5965,7 @@
                   <c:v>13.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.92</c:v>
@@ -5983,7 +5983,7 @@
                   <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11.67</c:v>
@@ -6193,7 +6193,7 @@
                   <c:v>13.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.12</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12.92</c:v>
@@ -6211,7 +6211,7 @@
                   <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.88</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11.67</c:v>
@@ -7525,10 +7525,10 @@
                   <c:v>2.0999999999999908E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1.9999999999999931E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2.1000000000000085E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9999999999999931E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.0999999999999908E-3</c:v>
@@ -7543,10 +7543,10 @@
                   <c:v>2.0999999999999908E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>2.1000000000000085E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1.9999999999999931E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.1000000000000085E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2.0999999999999908E-3</c:v>
@@ -8103,10 +8103,10 @@
                   <c:v>2.0999999999999908E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1.9999999999999931E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2.1000000000000085E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9999999999999931E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.0999999999999908E-3</c:v>
@@ -8121,10 +8121,10 @@
                   <c:v>2.0999999999999908E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>2.1000000000000085E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1.9999999999999931E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.1000000000000085E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2.0999999999999908E-3</c:v>
@@ -11976,7 +11976,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -22400,7 +22400,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2:Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -27360,8 +27360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520DF9AE-552C-DA41-ACC0-54A27029221C}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:AA28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -27611,7 +27611,7 @@
         <v>13.33</v>
       </c>
       <c r="L4" s="6">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="M4" s="6">
         <v>12.92</v>
@@ -27629,7 +27629,7 @@
         <v>12.08</v>
       </c>
       <c r="R4" s="6">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="S4" s="6">
         <v>11.67</v>
@@ -27695,7 +27695,7 @@
         <v>13.33</v>
       </c>
       <c r="L5" s="6">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="M5" s="6">
         <v>12.92</v>
@@ -27713,7 +27713,7 @@
         <v>12.08</v>
       </c>
       <c r="R5" s="6">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="S5" s="6">
         <v>11.67</v>
@@ -27780,7 +27780,7 @@
         <v>13.33</v>
       </c>
       <c r="L6" s="6">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="M6" s="6">
         <v>12.92</v>
@@ -27798,7 +27798,7 @@
         <v>12.08</v>
       </c>
       <c r="R6" s="6">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="S6" s="6">
         <v>11.67</v>
@@ -27865,7 +27865,7 @@
         <v>13.33</v>
       </c>
       <c r="L7" s="6">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="M7" s="6">
         <v>12.92</v>
@@ -27883,7 +27883,7 @@
         <v>12.08</v>
       </c>
       <c r="R7" s="6">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="S7" s="6">
         <v>11.67</v>
@@ -27950,7 +27950,7 @@
         <v>13.33</v>
       </c>
       <c r="L8" s="6">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="M8" s="6">
         <v>12.92</v>
@@ -27968,7 +27968,7 @@
         <v>12.08</v>
       </c>
       <c r="R8" s="6">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="S8" s="6">
         <v>11.67</v>
@@ -28035,7 +28035,7 @@
         <v>13.33</v>
       </c>
       <c r="L9" s="6">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="M9" s="6">
         <v>12.92</v>
@@ -28053,7 +28053,7 @@
         <v>12.08</v>
       </c>
       <c r="R9" s="6">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="S9" s="6">
         <v>11.67</v>
@@ -28120,7 +28120,7 @@
         <v>13.33</v>
       </c>
       <c r="L10" s="6">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="M10" s="6">
         <v>12.92</v>
@@ -28138,7 +28138,7 @@
         <v>12.08</v>
       </c>
       <c r="R10" s="6">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="S10" s="6">
         <v>11.67</v>
@@ -28184,7 +28184,7 @@
         <v>14.79</v>
       </c>
       <c r="E11" s="6">
-        <v>14.58</v>
+        <v>14.59</v>
       </c>
       <c r="F11" s="6">
         <v>14.38</v>
@@ -28199,13 +28199,13 @@
         <v>13.75</v>
       </c>
       <c r="J11" s="6">
-        <v>13.54</v>
+        <v>13.55</v>
       </c>
       <c r="K11" s="6">
-        <v>13.33</v>
+        <v>13.34</v>
       </c>
       <c r="L11" s="6">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="M11" s="6">
         <v>12.92</v>
@@ -28223,13 +28223,13 @@
         <v>12.08</v>
       </c>
       <c r="R11" s="6">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="S11" s="6">
-        <v>11.67</v>
+        <v>11.66</v>
       </c>
       <c r="T11" s="6">
-        <v>11.46</v>
+        <v>11.45</v>
       </c>
       <c r="U11" s="6">
         <v>11.25</v>
@@ -28244,7 +28244,7 @@
         <v>10.62</v>
       </c>
       <c r="Y11" s="6">
-        <v>10.42</v>
+        <v>10.41</v>
       </c>
       <c r="Z11" s="6">
         <v>10.210000000000001</v>
@@ -28269,7 +28269,7 @@
         <v>14.79</v>
       </c>
       <c r="E12" s="6">
-        <v>14.58</v>
+        <v>14.59</v>
       </c>
       <c r="F12" s="6">
         <v>14.38</v>
@@ -28278,19 +28278,19 @@
         <v>14.17</v>
       </c>
       <c r="H12" s="6">
-        <v>13.96</v>
+        <v>13.97</v>
       </c>
       <c r="I12" s="6">
-        <v>13.75</v>
+        <v>13.76</v>
       </c>
       <c r="J12" s="6">
-        <v>13.54</v>
+        <v>13.55</v>
       </c>
       <c r="K12" s="6">
-        <v>13.33</v>
+        <v>13.34</v>
       </c>
       <c r="L12" s="6">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="M12" s="6">
         <v>12.92</v>
@@ -28308,19 +28308,19 @@
         <v>12.08</v>
       </c>
       <c r="R12" s="6">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="S12" s="6">
-        <v>11.67</v>
+        <v>11.66</v>
       </c>
       <c r="T12" s="6">
-        <v>11.46</v>
+        <v>11.45</v>
       </c>
       <c r="U12" s="6">
-        <v>11.25</v>
+        <v>11.24</v>
       </c>
       <c r="V12" s="6">
-        <v>11.04</v>
+        <v>11.03</v>
       </c>
       <c r="W12" s="6">
         <v>10.83</v>
@@ -28329,7 +28329,7 @@
         <v>10.62</v>
       </c>
       <c r="Y12" s="6">
-        <v>10.42</v>
+        <v>10.41</v>
       </c>
       <c r="Z12" s="6">
         <v>10.210000000000001</v>
@@ -28351,73 +28351,73 @@
         <v>15</v>
       </c>
       <c r="D13" s="6">
-        <v>14.79</v>
+        <v>14.8</v>
       </c>
       <c r="E13" s="6">
-        <v>14.58</v>
+        <v>14.59</v>
       </c>
       <c r="F13" s="6">
-        <v>14.38</v>
+        <v>14.39</v>
       </c>
       <c r="G13" s="6">
-        <v>14.17</v>
+        <v>14.18</v>
       </c>
       <c r="H13" s="6">
-        <v>13.96</v>
+        <v>13.98</v>
       </c>
       <c r="I13" s="6">
-        <v>13.75</v>
+        <v>13.77</v>
       </c>
       <c r="J13" s="6">
-        <v>13.54</v>
+        <v>13.56</v>
       </c>
       <c r="K13" s="6">
-        <v>13.33</v>
+        <v>13.35</v>
       </c>
       <c r="L13" s="6">
-        <v>13.12</v>
+        <v>13.14</v>
       </c>
       <c r="M13" s="6">
-        <v>12.92</v>
+        <v>12.93</v>
       </c>
       <c r="N13" s="6">
-        <v>12.71</v>
+        <v>12.72</v>
       </c>
       <c r="O13" s="6">
         <v>12.5</v>
       </c>
       <c r="P13" s="6">
-        <v>12.29</v>
+        <v>12.28</v>
       </c>
       <c r="Q13" s="6">
-        <v>12.08</v>
+        <v>12.07</v>
       </c>
       <c r="R13" s="6">
-        <v>11.88</v>
+        <v>11.86</v>
       </c>
       <c r="S13" s="6">
-        <v>11.67</v>
+        <v>11.65</v>
       </c>
       <c r="T13" s="6">
-        <v>11.46</v>
+        <v>11.44</v>
       </c>
       <c r="U13" s="6">
-        <v>11.25</v>
+        <v>11.23</v>
       </c>
       <c r="V13" s="6">
-        <v>11.04</v>
+        <v>11.02</v>
       </c>
       <c r="W13" s="6">
-        <v>10.83</v>
+        <v>10.82</v>
       </c>
       <c r="X13" s="6">
-        <v>10.62</v>
+        <v>10.61</v>
       </c>
       <c r="Y13" s="6">
-        <v>10.42</v>
+        <v>10.41</v>
       </c>
       <c r="Z13" s="6">
-        <v>10.210000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AA13" s="6">
         <v>10</v>
@@ -28436,73 +28436,73 @@
         <v>15</v>
       </c>
       <c r="D14" s="6">
-        <v>14.79</v>
+        <v>14.8</v>
       </c>
       <c r="E14" s="6">
-        <v>14.58</v>
+        <v>14.6</v>
       </c>
       <c r="F14" s="6">
-        <v>14.38</v>
+        <v>14.4</v>
       </c>
       <c r="G14" s="6">
-        <v>14.17</v>
+        <v>14.19</v>
       </c>
       <c r="H14" s="6">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="I14" s="6">
-        <v>13.75</v>
+        <v>13.79</v>
       </c>
       <c r="J14" s="6">
-        <v>13.54</v>
+        <v>13.59</v>
       </c>
       <c r="K14" s="6">
-        <v>13.33</v>
+        <v>13.38</v>
       </c>
       <c r="L14" s="6">
-        <v>13.12</v>
+        <v>13.17</v>
       </c>
       <c r="M14" s="6">
-        <v>12.92</v>
+        <v>12.95</v>
       </c>
       <c r="N14" s="6">
-        <v>12.71</v>
+        <v>12.73</v>
       </c>
       <c r="O14" s="6">
         <v>12.5</v>
       </c>
       <c r="P14" s="6">
-        <v>12.29</v>
+        <v>12.27</v>
       </c>
       <c r="Q14" s="6">
-        <v>12.08</v>
+        <v>12.05</v>
       </c>
       <c r="R14" s="6">
-        <v>11.88</v>
+        <v>11.83</v>
       </c>
       <c r="S14" s="6">
-        <v>11.67</v>
+        <v>11.62</v>
       </c>
       <c r="T14" s="6">
-        <v>11.46</v>
+        <v>11.41</v>
       </c>
       <c r="U14" s="6">
-        <v>11.25</v>
+        <v>11.21</v>
       </c>
       <c r="V14" s="6">
-        <v>11.04</v>
+        <v>11.01</v>
       </c>
       <c r="W14" s="6">
-        <v>10.83</v>
+        <v>10.81</v>
       </c>
       <c r="X14" s="6">
-        <v>10.62</v>
+        <v>10.6</v>
       </c>
       <c r="Y14" s="6">
-        <v>10.42</v>
+        <v>10.4</v>
       </c>
       <c r="Z14" s="6">
-        <v>10.210000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AA14" s="6">
         <v>10</v>
@@ -28521,73 +28521,73 @@
         <v>15</v>
       </c>
       <c r="D15" s="6">
-        <v>14.79</v>
+        <v>14.8</v>
       </c>
       <c r="E15" s="6">
-        <v>14.58</v>
+        <v>14.6</v>
       </c>
       <c r="F15" s="6">
-        <v>14.38</v>
+        <v>14.41</v>
       </c>
       <c r="G15" s="6">
-        <v>14.17</v>
+        <v>14.21</v>
       </c>
       <c r="H15" s="6">
-        <v>13.96</v>
+        <v>14.02</v>
       </c>
       <c r="I15" s="6">
-        <v>13.75</v>
+        <v>13.82</v>
       </c>
       <c r="J15" s="6">
-        <v>13.54</v>
+        <v>13.63</v>
       </c>
       <c r="K15" s="6">
-        <v>13.33</v>
+        <v>13.44</v>
       </c>
       <c r="L15" s="6">
-        <v>13.12</v>
+        <v>13.26</v>
       </c>
       <c r="M15" s="6">
-        <v>12.92</v>
+        <v>13.08</v>
       </c>
       <c r="N15" s="6">
-        <v>12.71</v>
+        <v>12.83</v>
       </c>
       <c r="O15" s="6">
         <v>12.5</v>
       </c>
       <c r="P15" s="6">
-        <v>12.29</v>
+        <v>12.17</v>
       </c>
       <c r="Q15" s="6">
-        <v>12.08</v>
+        <v>11.92</v>
       </c>
       <c r="R15" s="6">
-        <v>11.88</v>
+        <v>11.74</v>
       </c>
       <c r="S15" s="6">
-        <v>11.67</v>
+        <v>11.56</v>
       </c>
       <c r="T15" s="6">
-        <v>11.46</v>
+        <v>11.37</v>
       </c>
       <c r="U15" s="6">
-        <v>11.25</v>
+        <v>11.18</v>
       </c>
       <c r="V15" s="6">
-        <v>11.04</v>
+        <v>10.98</v>
       </c>
       <c r="W15" s="6">
-        <v>10.83</v>
+        <v>10.79</v>
       </c>
       <c r="X15" s="6">
-        <v>10.62</v>
+        <v>10.59</v>
       </c>
       <c r="Y15" s="6">
-        <v>10.42</v>
+        <v>10.4</v>
       </c>
       <c r="Z15" s="6">
-        <v>10.210000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AA15" s="6">
         <v>10</v>
@@ -28606,73 +28606,73 @@
         <v>15</v>
       </c>
       <c r="D16" s="6">
-        <v>14.79</v>
+        <v>14.8</v>
       </c>
       <c r="E16" s="6">
-        <v>14.58</v>
+        <v>14.61</v>
       </c>
       <c r="F16" s="6">
-        <v>14.38</v>
+        <v>14.41</v>
       </c>
       <c r="G16" s="6">
-        <v>14.17</v>
+        <v>14.22</v>
       </c>
       <c r="H16" s="6">
-        <v>13.96</v>
+        <v>14.03</v>
       </c>
       <c r="I16" s="6">
-        <v>13.75</v>
+        <v>13.83</v>
       </c>
       <c r="J16" s="6">
-        <v>13.54</v>
+        <v>13.65</v>
       </c>
       <c r="K16" s="6">
-        <v>13.33</v>
+        <v>13.46</v>
       </c>
       <c r="L16" s="6">
-        <v>13.12</v>
+        <v>13.28</v>
       </c>
       <c r="M16" s="6">
-        <v>12.92</v>
+        <v>13.1</v>
       </c>
       <c r="N16" s="6">
-        <v>12.71</v>
+        <v>12.84</v>
       </c>
       <c r="O16" s="6">
         <v>12.5</v>
       </c>
       <c r="P16" s="6">
-        <v>12.29</v>
+        <v>12.16</v>
       </c>
       <c r="Q16" s="6">
-        <v>12.08</v>
+        <v>11.9</v>
       </c>
       <c r="R16" s="6">
-        <v>11.88</v>
+        <v>11.72</v>
       </c>
       <c r="S16" s="6">
-        <v>11.67</v>
+        <v>11.54</v>
       </c>
       <c r="T16" s="6">
-        <v>11.46</v>
+        <v>11.35</v>
       </c>
       <c r="U16" s="6">
-        <v>11.25</v>
+        <v>11.17</v>
       </c>
       <c r="V16" s="6">
-        <v>11.04</v>
+        <v>10.97</v>
       </c>
       <c r="W16" s="6">
-        <v>10.83</v>
+        <v>10.78</v>
       </c>
       <c r="X16" s="6">
-        <v>10.62</v>
+        <v>10.59</v>
       </c>
       <c r="Y16" s="6">
-        <v>10.42</v>
+        <v>10.39</v>
       </c>
       <c r="Z16" s="6">
-        <v>10.210000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AA16" s="6">
         <v>10</v>
@@ -28691,73 +28691,73 @@
         <v>15</v>
       </c>
       <c r="D17" s="6">
-        <v>14.79</v>
+        <v>14.8</v>
       </c>
       <c r="E17" s="6">
-        <v>14.58</v>
+        <v>14.6</v>
       </c>
       <c r="F17" s="6">
-        <v>14.38</v>
+        <v>14.41</v>
       </c>
       <c r="G17" s="6">
-        <v>14.17</v>
+        <v>14.21</v>
       </c>
       <c r="H17" s="6">
-        <v>13.96</v>
+        <v>14.02</v>
       </c>
       <c r="I17" s="6">
-        <v>13.75</v>
+        <v>13.82</v>
       </c>
       <c r="J17" s="6">
-        <v>13.54</v>
+        <v>13.63</v>
       </c>
       <c r="K17" s="6">
-        <v>13.33</v>
+        <v>13.44</v>
       </c>
       <c r="L17" s="6">
-        <v>13.12</v>
+        <v>13.26</v>
       </c>
       <c r="M17" s="6">
-        <v>12.92</v>
+        <v>13.08</v>
       </c>
       <c r="N17" s="6">
-        <v>12.71</v>
+        <v>12.83</v>
       </c>
       <c r="O17" s="6">
         <v>12.5</v>
       </c>
       <c r="P17" s="6">
-        <v>12.29</v>
+        <v>12.17</v>
       </c>
       <c r="Q17" s="6">
-        <v>12.08</v>
+        <v>11.92</v>
       </c>
       <c r="R17" s="6">
-        <v>11.88</v>
+        <v>11.74</v>
       </c>
       <c r="S17" s="6">
-        <v>11.67</v>
+        <v>11.56</v>
       </c>
       <c r="T17" s="6">
-        <v>11.46</v>
+        <v>11.37</v>
       </c>
       <c r="U17" s="6">
-        <v>11.25</v>
+        <v>11.18</v>
       </c>
       <c r="V17" s="6">
-        <v>11.04</v>
+        <v>10.98</v>
       </c>
       <c r="W17" s="6">
-        <v>10.83</v>
+        <v>10.79</v>
       </c>
       <c r="X17" s="6">
-        <v>10.62</v>
+        <v>10.59</v>
       </c>
       <c r="Y17" s="6">
-        <v>10.42</v>
+        <v>10.4</v>
       </c>
       <c r="Z17" s="6">
-        <v>10.210000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AA17" s="6">
         <v>10</v>
@@ -28776,73 +28776,73 @@
         <v>15</v>
       </c>
       <c r="D18" s="6">
-        <v>14.79</v>
+        <v>14.8</v>
       </c>
       <c r="E18" s="6">
-        <v>14.58</v>
+        <v>14.6</v>
       </c>
       <c r="F18" s="6">
-        <v>14.38</v>
+        <v>14.4</v>
       </c>
       <c r="G18" s="6">
-        <v>14.17</v>
+        <v>14.19</v>
       </c>
       <c r="H18" s="6">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="I18" s="6">
-        <v>13.75</v>
+        <v>13.79</v>
       </c>
       <c r="J18" s="6">
-        <v>13.54</v>
+        <v>13.59</v>
       </c>
       <c r="K18" s="6">
-        <v>13.33</v>
+        <v>13.38</v>
       </c>
       <c r="L18" s="6">
-        <v>13.12</v>
+        <v>13.17</v>
       </c>
       <c r="M18" s="6">
-        <v>12.92</v>
+        <v>12.95</v>
       </c>
       <c r="N18" s="6">
-        <v>12.71</v>
+        <v>12.73</v>
       </c>
       <c r="O18" s="6">
         <v>12.5</v>
       </c>
       <c r="P18" s="6">
-        <v>12.29</v>
+        <v>12.27</v>
       </c>
       <c r="Q18" s="6">
-        <v>12.08</v>
+        <v>12.05</v>
       </c>
       <c r="R18" s="6">
-        <v>11.88</v>
+        <v>11.83</v>
       </c>
       <c r="S18" s="6">
-        <v>11.67</v>
+        <v>11.62</v>
       </c>
       <c r="T18" s="6">
-        <v>11.46</v>
+        <v>11.41</v>
       </c>
       <c r="U18" s="6">
-        <v>11.25</v>
+        <v>11.21</v>
       </c>
       <c r="V18" s="6">
-        <v>11.04</v>
+        <v>11.01</v>
       </c>
       <c r="W18" s="6">
-        <v>10.83</v>
+        <v>10.81</v>
       </c>
       <c r="X18" s="6">
-        <v>10.62</v>
+        <v>10.6</v>
       </c>
       <c r="Y18" s="6">
-        <v>10.42</v>
+        <v>10.4</v>
       </c>
       <c r="Z18" s="6">
-        <v>10.210000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AA18" s="6">
         <v>10</v>
@@ -28861,73 +28861,73 @@
         <v>15</v>
       </c>
       <c r="D19" s="6">
-        <v>14.79</v>
+        <v>14.8</v>
       </c>
       <c r="E19" s="6">
-        <v>14.58</v>
+        <v>14.59</v>
       </c>
       <c r="F19" s="6">
-        <v>14.38</v>
+        <v>14.39</v>
       </c>
       <c r="G19" s="6">
-        <v>14.17</v>
+        <v>14.18</v>
       </c>
       <c r="H19" s="6">
-        <v>13.96</v>
+        <v>13.98</v>
       </c>
       <c r="I19" s="6">
-        <v>13.75</v>
+        <v>13.77</v>
       </c>
       <c r="J19" s="6">
-        <v>13.54</v>
+        <v>13.56</v>
       </c>
       <c r="K19" s="6">
-        <v>13.33</v>
+        <v>13.35</v>
       </c>
       <c r="L19" s="6">
-        <v>13.12</v>
+        <v>13.14</v>
       </c>
       <c r="M19" s="6">
-        <v>12.92</v>
+        <v>12.93</v>
       </c>
       <c r="N19" s="6">
-        <v>12.71</v>
+        <v>12.72</v>
       </c>
       <c r="O19" s="6">
         <v>12.5</v>
       </c>
       <c r="P19" s="6">
-        <v>12.29</v>
+        <v>12.28</v>
       </c>
       <c r="Q19" s="6">
-        <v>12.08</v>
+        <v>12.07</v>
       </c>
       <c r="R19" s="6">
-        <v>11.88</v>
+        <v>11.86</v>
       </c>
       <c r="S19" s="6">
-        <v>11.67</v>
+        <v>11.65</v>
       </c>
       <c r="T19" s="6">
-        <v>11.46</v>
+        <v>11.44</v>
       </c>
       <c r="U19" s="6">
-        <v>11.25</v>
+        <v>11.23</v>
       </c>
       <c r="V19" s="6">
-        <v>11.04</v>
+        <v>11.02</v>
       </c>
       <c r="W19" s="6">
-        <v>10.83</v>
+        <v>10.82</v>
       </c>
       <c r="X19" s="6">
-        <v>10.62</v>
+        <v>10.61</v>
       </c>
       <c r="Y19" s="6">
-        <v>10.42</v>
+        <v>10.41</v>
       </c>
       <c r="Z19" s="6">
-        <v>10.210000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AA19" s="6">
         <v>10</v>
@@ -28949,7 +28949,7 @@
         <v>14.79</v>
       </c>
       <c r="E20" s="6">
-        <v>14.58</v>
+        <v>14.59</v>
       </c>
       <c r="F20" s="6">
         <v>14.38</v>
@@ -28958,19 +28958,19 @@
         <v>14.17</v>
       </c>
       <c r="H20" s="6">
-        <v>13.96</v>
+        <v>13.97</v>
       </c>
       <c r="I20" s="6">
-        <v>13.75</v>
+        <v>13.76</v>
       </c>
       <c r="J20" s="6">
-        <v>13.54</v>
+        <v>13.55</v>
       </c>
       <c r="K20" s="6">
-        <v>13.33</v>
+        <v>13.34</v>
       </c>
       <c r="L20" s="6">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="M20" s="6">
         <v>12.92</v>
@@ -28988,19 +28988,19 @@
         <v>12.08</v>
       </c>
       <c r="R20" s="6">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="S20" s="6">
-        <v>11.67</v>
+        <v>11.66</v>
       </c>
       <c r="T20" s="6">
-        <v>11.46</v>
+        <v>11.45</v>
       </c>
       <c r="U20" s="6">
-        <v>11.25</v>
+        <v>11.24</v>
       </c>
       <c r="V20" s="6">
-        <v>11.04</v>
+        <v>11.03</v>
       </c>
       <c r="W20" s="6">
         <v>10.83</v>
@@ -29009,7 +29009,7 @@
         <v>10.62</v>
       </c>
       <c r="Y20" s="6">
-        <v>10.42</v>
+        <v>10.41</v>
       </c>
       <c r="Z20" s="6">
         <v>10.210000000000001</v>
@@ -29034,7 +29034,7 @@
         <v>14.79</v>
       </c>
       <c r="E21" s="6">
-        <v>14.58</v>
+        <v>14.59</v>
       </c>
       <c r="F21" s="6">
         <v>14.38</v>
@@ -29049,13 +29049,13 @@
         <v>13.75</v>
       </c>
       <c r="J21" s="6">
-        <v>13.54</v>
+        <v>13.55</v>
       </c>
       <c r="K21" s="6">
-        <v>13.33</v>
+        <v>13.34</v>
       </c>
       <c r="L21" s="6">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="M21" s="6">
         <v>12.92</v>
@@ -29073,13 +29073,13 @@
         <v>12.08</v>
       </c>
       <c r="R21" s="6">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="S21" s="6">
-        <v>11.67</v>
+        <v>11.66</v>
       </c>
       <c r="T21" s="6">
-        <v>11.46</v>
+        <v>11.45</v>
       </c>
       <c r="U21" s="6">
         <v>11.25</v>
@@ -29094,7 +29094,7 @@
         <v>10.62</v>
       </c>
       <c r="Y21" s="6">
-        <v>10.42</v>
+        <v>10.41</v>
       </c>
       <c r="Z21" s="6">
         <v>10.210000000000001</v>
@@ -29140,7 +29140,7 @@
         <v>13.33</v>
       </c>
       <c r="L22" s="6">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="M22" s="6">
         <v>12.92</v>
@@ -29158,7 +29158,7 @@
         <v>12.08</v>
       </c>
       <c r="R22" s="6">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="S22" s="6">
         <v>11.67</v>
@@ -29225,7 +29225,7 @@
         <v>13.33</v>
       </c>
       <c r="L23" s="6">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="M23" s="6">
         <v>12.92</v>
@@ -29243,7 +29243,7 @@
         <v>12.08</v>
       </c>
       <c r="R23" s="6">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="S23" s="6">
         <v>11.67</v>
@@ -29310,7 +29310,7 @@
         <v>13.33</v>
       </c>
       <c r="L24" s="6">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="M24" s="6">
         <v>12.92</v>
@@ -29328,7 +29328,7 @@
         <v>12.08</v>
       </c>
       <c r="R24" s="6">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="S24" s="6">
         <v>11.67</v>
@@ -29395,7 +29395,7 @@
         <v>13.33</v>
       </c>
       <c r="L25" s="6">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="M25" s="6">
         <v>12.92</v>
@@ -29413,7 +29413,7 @@
         <v>12.08</v>
       </c>
       <c r="R25" s="6">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="S25" s="6">
         <v>11.67</v>
@@ -29480,7 +29480,7 @@
         <v>13.33</v>
       </c>
       <c r="L26" s="6">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="M26" s="6">
         <v>12.92</v>
@@ -29498,7 +29498,7 @@
         <v>12.08</v>
       </c>
       <c r="R26" s="6">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="S26" s="6">
         <v>11.67</v>
@@ -29565,7 +29565,7 @@
         <v>13.33</v>
       </c>
       <c r="L27" s="6">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="M27" s="6">
         <v>12.92</v>
@@ -29583,7 +29583,7 @@
         <v>12.08</v>
       </c>
       <c r="R27" s="6">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="S27" s="6">
         <v>11.67</v>
@@ -29650,7 +29650,7 @@
         <v>13.33</v>
       </c>
       <c r="L28" s="6">
-        <v>13.12</v>
+        <v>13.13</v>
       </c>
       <c r="M28" s="6">
         <v>12.92</v>
@@ -29668,7 +29668,7 @@
         <v>12.08</v>
       </c>
       <c r="R28" s="6">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="S28" s="6">
         <v>11.67</v>
@@ -29719,7 +29719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B842760C-4A3D-7C48-B8D8-B3990F9D725F}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -29872,11 +29872,11 @@
       </c>
       <c r="K3" s="1">
         <f>bcf_1_edited!J3*(heads_1!K4-heads_1!L4)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L3" s="1">
         <f>bcf_1_edited!K3*(heads_1!L4-heads_1!M4)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M3" s="1">
         <f>bcf_1_edited!L3*(heads_1!M4-heads_1!N4)/100</f>
@@ -29896,11 +29896,11 @@
       </c>
       <c r="Q3" s="1">
         <f>bcf_1_edited!P3*(heads_1!Q4-heads_1!R4)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R3" s="1">
         <f>bcf_1_edited!Q3*(heads_1!R4-heads_1!S4)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S3" s="1">
         <f>bcf_1_edited!R3*(heads_1!S4-heads_1!T4)/100</f>
@@ -29974,11 +29974,11 @@
       </c>
       <c r="K4" s="1">
         <f>bcf_1_edited!J4*(heads_1!K5-heads_1!L5)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L4" s="1">
         <f>bcf_1_edited!K4*(heads_1!L5-heads_1!M5)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M4" s="1">
         <f>bcf_1_edited!L4*(heads_1!M5-heads_1!N5)/100</f>
@@ -29998,11 +29998,11 @@
       </c>
       <c r="Q4" s="1">
         <f>bcf_1_edited!P4*(heads_1!Q5-heads_1!R5)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R4" s="1">
         <f>bcf_1_edited!Q4*(heads_1!R5-heads_1!S5)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S4" s="1">
         <f>bcf_1_edited!R4*(heads_1!S5-heads_1!T5)/100</f>
@@ -30076,11 +30076,11 @@
       </c>
       <c r="K5" s="1">
         <f>bcf_1_edited!J5*(heads_1!K6-heads_1!L6)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L5" s="1">
         <f>bcf_1_edited!K5*(heads_1!L6-heads_1!M6)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M5" s="1">
         <f>bcf_1_edited!L5*(heads_1!M6-heads_1!N6)/100</f>
@@ -30100,11 +30100,11 @@
       </c>
       <c r="Q5" s="1">
         <f>bcf_1_edited!P5*(heads_1!Q6-heads_1!R6)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R5" s="1">
         <f>bcf_1_edited!Q5*(heads_1!R6-heads_1!S6)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S5" s="1">
         <f>bcf_1_edited!R5*(heads_1!S6-heads_1!T6)/100</f>
@@ -30178,11 +30178,11 @@
       </c>
       <c r="K6" s="1">
         <f>bcf_1_edited!J6*(heads_1!K7-heads_1!L7)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L6" s="1">
         <f>bcf_1_edited!K6*(heads_1!L7-heads_1!M7)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M6" s="1">
         <f>bcf_1_edited!L6*(heads_1!M7-heads_1!N7)/100</f>
@@ -30202,11 +30202,11 @@
       </c>
       <c r="Q6" s="1">
         <f>bcf_1_edited!P6*(heads_1!Q7-heads_1!R7)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R6" s="1">
         <f>bcf_1_edited!Q6*(heads_1!R7-heads_1!S7)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S6" s="1">
         <f>bcf_1_edited!R6*(heads_1!S7-heads_1!T7)/100</f>
@@ -30280,11 +30280,11 @@
       </c>
       <c r="K7" s="1">
         <f>bcf_1_edited!J7*(heads_1!K8-heads_1!L8)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L7" s="1">
         <f>bcf_1_edited!K7*(heads_1!L8-heads_1!M8)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M7" s="1">
         <f>bcf_1_edited!L7*(heads_1!M8-heads_1!N8)/100</f>
@@ -30304,11 +30304,11 @@
       </c>
       <c r="Q7" s="1">
         <f>bcf_1_edited!P7*(heads_1!Q8-heads_1!R8)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R7" s="1">
         <f>bcf_1_edited!Q7*(heads_1!R8-heads_1!S8)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S7" s="1">
         <f>bcf_1_edited!R7*(heads_1!S8-heads_1!T8)/100</f>
@@ -30382,11 +30382,11 @@
       </c>
       <c r="K8" s="1">
         <f>bcf_1_edited!J8*(heads_1!K9-heads_1!L9)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L8" s="1">
         <f>bcf_1_edited!K8*(heads_1!L9-heads_1!M9)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M8" s="1">
         <f>bcf_1_edited!L8*(heads_1!M9-heads_1!N9)/100</f>
@@ -30406,11 +30406,11 @@
       </c>
       <c r="Q8" s="1">
         <f>bcf_1_edited!P8*(heads_1!Q9-heads_1!R9)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R8" s="1">
         <f>bcf_1_edited!Q8*(heads_1!R9-heads_1!S9)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S8" s="1">
         <f>bcf_1_edited!R8*(heads_1!S9-heads_1!T9)/100</f>
@@ -30484,11 +30484,11 @@
       </c>
       <c r="K9" s="1">
         <f>bcf_1_edited!J9*(heads_1!K10-heads_1!L10)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L9" s="1">
         <f>bcf_1_edited!K9*(heads_1!L10-heads_1!M10)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M9" s="1">
         <f>bcf_1_edited!L9*(heads_1!M10-heads_1!N10)/100</f>
@@ -30508,11 +30508,11 @@
       </c>
       <c r="Q9" s="1">
         <f>bcf_1_edited!P9*(heads_1!Q10-heads_1!R10)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R9" s="1">
         <f>bcf_1_edited!Q9*(heads_1!R10-heads_1!S10)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S9" s="1">
         <f>bcf_1_edited!R9*(heads_1!S10-heads_1!T10)/100</f>
@@ -30558,11 +30558,11 @@
       </c>
       <c r="D10" s="1">
         <f>bcf_1_edited!C10*(heads_1!D11-heads_1!E11)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="E10" s="1">
         <f>bcf_1_edited!D10*(heads_1!E11-heads_1!F11)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="F10" s="1">
         <f>bcf_1_edited!E10*(heads_1!F11-heads_1!G11)/100</f>
@@ -30578,19 +30578,19 @@
       </c>
       <c r="I10" s="1">
         <f>bcf_1_edited!H10*(heads_1!I11-heads_1!J11)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="J10" s="1">
         <f>bcf_1_edited!I10*(heads_1!J11-heads_1!K11)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="K10" s="1">
         <f>bcf_1_edited!J10*(heads_1!K11-heads_1!L11)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="L10" s="1">
         <f>bcf_1_edited!K10*(heads_1!L11-heads_1!M11)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M10" s="1">
         <f>bcf_1_edited!L10*(heads_1!M11-heads_1!N11)/100</f>
@@ -30610,19 +30610,19 @@
       </c>
       <c r="Q10" s="1">
         <f>bcf_1_edited!P10*(heads_1!Q11-heads_1!R11)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R10" s="1">
         <f>bcf_1_edited!Q10*(heads_1!R11-heads_1!S11)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="S10" s="1">
         <f>bcf_1_edited!R10*(heads_1!S11-heads_1!T11)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="T10" s="1">
         <f>bcf_1_edited!S10*(heads_1!T11-heads_1!U11)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="U10" s="1">
         <f>bcf_1_edited!T10*(heads_1!U11-heads_1!V11)/100</f>
@@ -30638,11 +30638,11 @@
       </c>
       <c r="X10" s="1">
         <f>bcf_1_edited!W10*(heads_1!X11-heads_1!Y11)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="Y10" s="1">
         <f>bcf_1_edited!X10*(heads_1!Y11-heads_1!Z11)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="Z10" s="1">
         <f>bcf_1_edited!Y10*(heads_1!Z11-heads_1!AA11)/100</f>
@@ -30660,11 +30660,11 @@
       </c>
       <c r="D11" s="1">
         <f>bcf_1_edited!C11*(heads_1!D12-heads_1!E12)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="E11" s="1">
         <f>bcf_1_edited!D11*(heads_1!E12-heads_1!F12)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="F11" s="1">
         <f>bcf_1_edited!E11*(heads_1!F12-heads_1!G12)/100</f>
@@ -30672,7 +30672,7 @@
       </c>
       <c r="G11" s="1">
         <f>bcf_1_edited!F11*(heads_1!G12-heads_1!H12)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="H11" s="1">
         <f>bcf_1_edited!G11*(heads_1!H12-heads_1!I12)/100</f>
@@ -30680,19 +30680,19 @@
       </c>
       <c r="I11" s="1">
         <f>bcf_1_edited!H11*(heads_1!I12-heads_1!J12)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="J11" s="1">
         <f>bcf_1_edited!I11*(heads_1!J12-heads_1!K12)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="K11" s="1">
         <f>bcf_1_edited!J11*(heads_1!K12-heads_1!L12)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="L11" s="1">
         <f>bcf_1_edited!K11*(heads_1!L12-heads_1!M12)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M11" s="1">
         <f>bcf_1_edited!L11*(heads_1!M12-heads_1!N12)/100</f>
@@ -30712,19 +30712,19 @@
       </c>
       <c r="Q11" s="1">
         <f>bcf_1_edited!P11*(heads_1!Q12-heads_1!R12)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R11" s="1">
         <f>bcf_1_edited!Q11*(heads_1!R12-heads_1!S12)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="S11" s="1">
         <f>bcf_1_edited!R11*(heads_1!S12-heads_1!T12)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="T11" s="1">
         <f>bcf_1_edited!S11*(heads_1!T12-heads_1!U12)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="U11" s="1">
         <f>bcf_1_edited!T11*(heads_1!U12-heads_1!V12)/100</f>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="V11" s="1">
         <f>bcf_1_edited!U11*(heads_1!V12-heads_1!W12)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="W11" s="1">
         <f>bcf_1_edited!V11*(heads_1!W12-heads_1!X12)/100</f>
@@ -30740,11 +30740,11 @@
       </c>
       <c r="X11" s="1">
         <f>bcf_1_edited!W11*(heads_1!X12-heads_1!Y12)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="Y11" s="1">
         <f>bcf_1_edited!X11*(heads_1!Y12-heads_1!Z12)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="Z11" s="1">
         <f>bcf_1_edited!Y11*(heads_1!Z12-heads_1!AA12)/100</f>
@@ -30758,11 +30758,11 @@
       </c>
       <c r="C12" s="1">
         <f>bcf_1_edited!B12*(heads_1!C13-heads_1!D13)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="D12" s="1">
         <f>bcf_1_edited!C12*(heads_1!D13-heads_1!E13)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="E12" s="1">
         <f>bcf_1_edited!D12*(heads_1!E13-heads_1!F13)/100</f>
@@ -30774,7 +30774,7 @@
       </c>
       <c r="G12" s="1">
         <f>bcf_1_edited!F12*(heads_1!G13-heads_1!H13)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="H12" s="1">
         <f>bcf_1_edited!G12*(heads_1!H13-heads_1!I13)/100</f>
@@ -30782,19 +30782,19 @@
       </c>
       <c r="I12" s="1">
         <f>bcf_1_edited!H12*(heads_1!I13-heads_1!J13)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="J12" s="1">
         <f>bcf_1_edited!I12*(heads_1!J13-heads_1!K13)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="K12" s="1">
         <f>bcf_1_edited!J12*(heads_1!K13-heads_1!L13)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="L12" s="1">
         <f>bcf_1_edited!K12*(heads_1!L13-heads_1!M13)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M12" s="1">
         <f>bcf_1_edited!L12*(heads_1!M13-heads_1!N13)/100</f>
@@ -30802,11 +30802,11 @@
       </c>
       <c r="N12" s="1">
         <f>bcf_1_edited!M12*(heads_1!N13-heads_1!O13)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.2000000000000062E-3</v>
       </c>
       <c r="O12" s="1">
         <f>bcf_1_edited!N12*(heads_1!O13-heads_1!P13)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.2000000000000062E-3</v>
       </c>
       <c r="P12" s="1">
         <f>bcf_1_edited!O12*(heads_1!P13-heads_1!Q13)/100</f>
@@ -30814,19 +30814,19 @@
       </c>
       <c r="Q12" s="1">
         <f>bcf_1_edited!P12*(heads_1!Q13-heads_1!R13)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R12" s="1">
         <f>bcf_1_edited!Q12*(heads_1!R13-heads_1!S13)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="S12" s="1">
         <f>bcf_1_edited!R12*(heads_1!S13-heads_1!T13)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="T12" s="1">
         <f>bcf_1_edited!S12*(heads_1!T13-heads_1!U13)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="U12" s="1">
         <f>bcf_1_edited!T12*(heads_1!U13-heads_1!V13)/100</f>
@@ -30834,7 +30834,7 @@
       </c>
       <c r="V12" s="1">
         <f>bcf_1_edited!U12*(heads_1!V13-heads_1!W13)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="W12" s="1">
         <f>bcf_1_edited!V12*(heads_1!W13-heads_1!X13)/100</f>
@@ -30846,11 +30846,11 @@
       </c>
       <c r="Y12" s="1">
         <f>bcf_1_edited!X12*(heads_1!Y13-heads_1!Z13)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="Z12" s="1">
         <f>bcf_1_edited!Y12*(heads_1!Z13-heads_1!AA13)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -30860,11 +30860,11 @@
       </c>
       <c r="C13" s="1">
         <f>bcf_1_edited!B13*(heads_1!C14-heads_1!D14)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="D13" s="1">
         <f>bcf_1_edited!C13*(heads_1!D14-heads_1!E14)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="E13" s="1">
         <f>bcf_1_edited!D13*(heads_1!E14-heads_1!F14)/100</f>
@@ -30876,15 +30876,15 @@
       </c>
       <c r="G13" s="1">
         <f>bcf_1_edited!F13*(heads_1!G14-heads_1!H14)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="H13" s="1">
         <f>bcf_1_edited!G13*(heads_1!H14-heads_1!I14)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="I13" s="1">
         <f>bcf_1_edited!H13*(heads_1!I14-heads_1!J14)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="J13" s="1">
         <f>bcf_1_edited!I13*(heads_1!J14-heads_1!K14)/100</f>
@@ -30896,27 +30896,27 @@
       </c>
       <c r="L13" s="1">
         <f>bcf_1_edited!K13*(heads_1!L14-heads_1!M14)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.2000000000000062E-3</v>
       </c>
       <c r="M13" s="1">
         <f>bcf_1_edited!L13*(heads_1!M14-heads_1!N14)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1999999999999884E-3</v>
       </c>
       <c r="N13" s="1">
         <f>bcf_1_edited!M13*(heads_1!N14-heads_1!O14)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.3000000000000043E-3</v>
       </c>
       <c r="O13" s="1">
         <f>bcf_1_edited!N13*(heads_1!O14-heads_1!P14)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.3000000000000043E-3</v>
       </c>
       <c r="P13" s="1">
         <f>bcf_1_edited!O13*(heads_1!P14-heads_1!Q14)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1999999999999884E-3</v>
       </c>
       <c r="Q13" s="1">
         <f>bcf_1_edited!P13*(heads_1!Q14-heads_1!R14)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.2000000000000062E-3</v>
       </c>
       <c r="R13" s="1">
         <f>bcf_1_edited!Q13*(heads_1!R14-heads_1!S14)/100</f>
@@ -30928,15 +30928,15 @@
       </c>
       <c r="T13" s="1">
         <f>bcf_1_edited!S13*(heads_1!T14-heads_1!U14)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="U13" s="1">
         <f>bcf_1_edited!T13*(heads_1!U14-heads_1!V14)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="V13" s="1">
         <f>bcf_1_edited!U13*(heads_1!V14-heads_1!W14)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="W13" s="1">
         <f>bcf_1_edited!V13*(heads_1!W14-heads_1!X14)/100</f>
@@ -30948,11 +30948,11 @@
       </c>
       <c r="Y13" s="1">
         <f>bcf_1_edited!X13*(heads_1!Y14-heads_1!Z14)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="Z13" s="1">
         <f>bcf_1_edited!Y13*(heads_1!Z14-heads_1!AA14)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -30962,99 +30962,99 @@
       </c>
       <c r="C14" s="1">
         <f>bcf_1_edited!B14*(heads_1!C15-heads_1!D15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="D14" s="1">
         <f>bcf_1_edited!C14*(heads_1!D15-heads_1!E15)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="E14" s="1">
         <f>bcf_1_edited!D14*(heads_1!E15-heads_1!F15)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="F14" s="1">
         <f>bcf_1_edited!E14*(heads_1!F15-heads_1!G15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="G14" s="1">
         <f>bcf_1_edited!F14*(heads_1!G15-heads_1!H15)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="H14" s="1">
         <f>bcf_1_edited!G14*(heads_1!H15-heads_1!I15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="I14" s="1">
         <f>bcf_1_edited!H14*(heads_1!I15-heads_1!J15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="J14" s="1">
         <f>bcf_1_edited!I14*(heads_1!J15-heads_1!K15)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="K14" s="1">
         <f>bcf_1_edited!J14*(heads_1!K15-heads_1!L15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="L14" s="1">
         <f>bcf_1_edited!K14*(heads_1!L15-heads_1!M15)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="M14" s="1">
         <f>bcf_1_edited!L14*(heads_1!M15-heads_1!N15)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N14" s="1">
         <f>bcf_1_edited!M14*(heads_1!N15-heads_1!O15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>3.3000000000000008E-3</v>
       </c>
       <c r="O14" s="1">
         <f>bcf_1_edited!N14*(heads_1!O15-heads_1!P15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>3.3000000000000008E-3</v>
       </c>
       <c r="P14" s="1">
         <f>bcf_1_edited!O14*(heads_1!P15-heads_1!Q15)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="Q14" s="1">
         <f>bcf_1_edited!P14*(heads_1!Q15-heads_1!R15)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="R14" s="1">
         <f>bcf_1_edited!Q14*(heads_1!R15-heads_1!S15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="S14" s="1">
         <f>bcf_1_edited!R14*(heads_1!S15-heads_1!T15)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="T14" s="1">
         <f>bcf_1_edited!S14*(heads_1!T15-heads_1!U15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="U14" s="1">
         <f>bcf_1_edited!T14*(heads_1!U15-heads_1!V15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="V14" s="1">
         <f>bcf_1_edited!U14*(heads_1!V15-heads_1!W15)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="W14" s="1">
         <f>bcf_1_edited!V14*(heads_1!W15-heads_1!X15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="X14" s="1">
         <f>bcf_1_edited!W14*(heads_1!X15-heads_1!Y15)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="Y14" s="1">
         <f>bcf_1_edited!X14*(heads_1!Y15-heads_1!Z15)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="Z14" s="1">
         <f>bcf_1_edited!Y14*(heads_1!Z15-heads_1!AA15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -31064,11 +31064,11 @@
       </c>
       <c r="C15" s="1">
         <f>bcf_1_edited!B15*(heads_1!C16-heads_1!D16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="D15" s="1">
         <f>bcf_1_edited!C15*(heads_1!D16-heads_1!E16)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="E15" s="1">
         <f>bcf_1_edited!D15*(heads_1!E16-heads_1!F16)/100</f>
@@ -31076,75 +31076,75 @@
       </c>
       <c r="F15" s="1">
         <f>bcf_1_edited!E15*(heads_1!F16-heads_1!G16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="G15" s="1">
         <f>bcf_1_edited!F15*(heads_1!G16-heads_1!H16)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="H15" s="1">
         <f>bcf_1_edited!G15*(heads_1!H16-heads_1!I16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="I15" s="1">
         <f>bcf_1_edited!H15*(heads_1!I16-heads_1!J16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="J15" s="1">
         <f>bcf_1_edited!I15*(heads_1!J16-heads_1!K16)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="K15" s="1">
         <f>bcf_1_edited!J15*(heads_1!K16-heads_1!L16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.8000000000000149E-3</v>
       </c>
       <c r="L15" s="1">
         <f>bcf_1_edited!K15*(heads_1!L16-heads_1!M16)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="M15" s="1">
         <f>bcf_1_edited!L15*(heads_1!M16-heads_1!N16)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.5999999999999977E-3</v>
       </c>
       <c r="N15" s="1">
         <f>bcf_1_edited!M15*(heads_1!N16-heads_1!O16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>3.3999999999999985E-3</v>
       </c>
       <c r="O15" s="1">
         <f>bcf_1_edited!N15*(heads_1!O16-heads_1!P16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>3.3999999999999985E-3</v>
       </c>
       <c r="P15" s="1">
         <f>bcf_1_edited!O15*(heads_1!P16-heads_1!Q16)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.5999999999999977E-3</v>
       </c>
       <c r="Q15" s="1">
         <f>bcf_1_edited!P15*(heads_1!Q16-heads_1!R16)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="R15" s="1">
         <f>bcf_1_edited!Q15*(heads_1!R16-heads_1!S16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.8000000000000149E-3</v>
       </c>
       <c r="S15" s="1">
         <f>bcf_1_edited!R15*(heads_1!S16-heads_1!T16)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="T15" s="1">
         <f>bcf_1_edited!S15*(heads_1!T16-heads_1!U16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="U15" s="1">
         <f>bcf_1_edited!T15*(heads_1!U16-heads_1!V16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="V15" s="1">
         <f>bcf_1_edited!U15*(heads_1!V16-heads_1!W16)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="W15" s="1">
         <f>bcf_1_edited!V15*(heads_1!W16-heads_1!X16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="X15" s="1">
         <f>bcf_1_edited!W15*(heads_1!X16-heads_1!Y16)/100</f>
@@ -31152,11 +31152,11 @@
       </c>
       <c r="Y15" s="1">
         <f>bcf_1_edited!X15*(heads_1!Y16-heads_1!Z16)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="Z15" s="1">
         <f>bcf_1_edited!Y15*(heads_1!Z16-heads_1!AA16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -31166,99 +31166,99 @@
       </c>
       <c r="C16" s="1">
         <f>bcf_1_edited!B16*(heads_1!C17-heads_1!D17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="D16" s="1">
         <f>bcf_1_edited!C16*(heads_1!D17-heads_1!E17)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="E16" s="1">
         <f>bcf_1_edited!D16*(heads_1!E17-heads_1!F17)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="F16" s="1">
         <f>bcf_1_edited!E16*(heads_1!F17-heads_1!G17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="G16" s="1">
         <f>bcf_1_edited!F16*(heads_1!G17-heads_1!H17)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="H16" s="1">
         <f>bcf_1_edited!G16*(heads_1!H17-heads_1!I17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="I16" s="1">
         <f>bcf_1_edited!H16*(heads_1!I17-heads_1!J17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="J16" s="1">
         <f>bcf_1_edited!I16*(heads_1!J17-heads_1!K17)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="K16" s="1">
         <f>bcf_1_edited!J16*(heads_1!K17-heads_1!L17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="L16" s="1">
         <f>bcf_1_edited!K16*(heads_1!L17-heads_1!M17)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="M16" s="1">
         <f>bcf_1_edited!L16*(heads_1!M17-heads_1!N17)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N16" s="1">
         <f>bcf_1_edited!M16*(heads_1!N17-heads_1!O17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>3.3000000000000008E-3</v>
       </c>
       <c r="O16" s="1">
         <f>bcf_1_edited!N16*(heads_1!O17-heads_1!P17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>3.3000000000000008E-3</v>
       </c>
       <c r="P16" s="1">
         <f>bcf_1_edited!O16*(heads_1!P17-heads_1!Q17)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="Q16" s="1">
         <f>bcf_1_edited!P16*(heads_1!Q17-heads_1!R17)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="R16" s="1">
         <f>bcf_1_edited!Q16*(heads_1!R17-heads_1!S17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="S16" s="1">
         <f>bcf_1_edited!R16*(heads_1!S17-heads_1!T17)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="T16" s="1">
         <f>bcf_1_edited!S16*(heads_1!T17-heads_1!U17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="U16" s="1">
         <f>bcf_1_edited!T16*(heads_1!U17-heads_1!V17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="V16" s="1">
         <f>bcf_1_edited!U16*(heads_1!V17-heads_1!W17)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="W16" s="1">
         <f>bcf_1_edited!V16*(heads_1!W17-heads_1!X17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="X16" s="1">
         <f>bcf_1_edited!W16*(heads_1!X17-heads_1!Y17)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="Y16" s="1">
         <f>bcf_1_edited!X16*(heads_1!Y17-heads_1!Z17)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="Z16" s="1">
         <f>bcf_1_edited!Y16*(heads_1!Z17-heads_1!AA17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
@@ -31268,11 +31268,11 @@
       </c>
       <c r="C17" s="1">
         <f>bcf_1_edited!B17*(heads_1!C18-heads_1!D18)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="D17" s="1">
         <f>bcf_1_edited!C17*(heads_1!D18-heads_1!E18)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="E17" s="1">
         <f>bcf_1_edited!D17*(heads_1!E18-heads_1!F18)/100</f>
@@ -31284,15 +31284,15 @@
       </c>
       <c r="G17" s="1">
         <f>bcf_1_edited!F17*(heads_1!G18-heads_1!H18)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="H17" s="1">
         <f>bcf_1_edited!G17*(heads_1!H18-heads_1!I18)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="I17" s="1">
         <f>bcf_1_edited!H17*(heads_1!I18-heads_1!J18)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="J17" s="1">
         <f>bcf_1_edited!I17*(heads_1!J18-heads_1!K18)/100</f>
@@ -31304,27 +31304,27 @@
       </c>
       <c r="L17" s="1">
         <f>bcf_1_edited!K17*(heads_1!L18-heads_1!M18)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.2000000000000062E-3</v>
       </c>
       <c r="M17" s="1">
         <f>bcf_1_edited!L17*(heads_1!M18-heads_1!N18)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1999999999999884E-3</v>
       </c>
       <c r="N17" s="1">
         <f>bcf_1_edited!M17*(heads_1!N18-heads_1!O18)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.3000000000000043E-3</v>
       </c>
       <c r="O17" s="1">
         <f>bcf_1_edited!N17*(heads_1!O18-heads_1!P18)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.3000000000000043E-3</v>
       </c>
       <c r="P17" s="1">
         <f>bcf_1_edited!O17*(heads_1!P18-heads_1!Q18)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1999999999999884E-3</v>
       </c>
       <c r="Q17" s="1">
         <f>bcf_1_edited!P17*(heads_1!Q18-heads_1!R18)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.2000000000000062E-3</v>
       </c>
       <c r="R17" s="1">
         <f>bcf_1_edited!Q17*(heads_1!R18-heads_1!S18)/100</f>
@@ -31336,15 +31336,15 @@
       </c>
       <c r="T17" s="1">
         <f>bcf_1_edited!S17*(heads_1!T18-heads_1!U18)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="U17" s="1">
         <f>bcf_1_edited!T17*(heads_1!U18-heads_1!V18)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="V17" s="1">
         <f>bcf_1_edited!U17*(heads_1!V18-heads_1!W18)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="W17" s="1">
         <f>bcf_1_edited!V17*(heads_1!W18-heads_1!X18)/100</f>
@@ -31356,11 +31356,11 @@
       </c>
       <c r="Y17" s="1">
         <f>bcf_1_edited!X17*(heads_1!Y18-heads_1!Z18)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="Z17" s="1">
         <f>bcf_1_edited!Y17*(heads_1!Z18-heads_1!AA18)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
@@ -31370,11 +31370,11 @@
       </c>
       <c r="C18" s="1">
         <f>bcf_1_edited!B18*(heads_1!C19-heads_1!D19)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="D18" s="1">
         <f>bcf_1_edited!C18*(heads_1!D19-heads_1!E19)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="E18" s="1">
         <f>bcf_1_edited!D18*(heads_1!E19-heads_1!F19)/100</f>
@@ -31386,7 +31386,7 @@
       </c>
       <c r="G18" s="1">
         <f>bcf_1_edited!F18*(heads_1!G19-heads_1!H19)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="H18" s="1">
         <f>bcf_1_edited!G18*(heads_1!H19-heads_1!I19)/100</f>
@@ -31394,19 +31394,19 @@
       </c>
       <c r="I18" s="1">
         <f>bcf_1_edited!H18*(heads_1!I19-heads_1!J19)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="J18" s="1">
         <f>bcf_1_edited!I18*(heads_1!J19-heads_1!K19)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="K18" s="1">
         <f>bcf_1_edited!J18*(heads_1!K19-heads_1!L19)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="L18" s="1">
         <f>bcf_1_edited!K18*(heads_1!L19-heads_1!M19)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M18" s="1">
         <f>bcf_1_edited!L18*(heads_1!M19-heads_1!N19)/100</f>
@@ -31414,11 +31414,11 @@
       </c>
       <c r="N18" s="1">
         <f>bcf_1_edited!M18*(heads_1!N19-heads_1!O19)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.2000000000000062E-3</v>
       </c>
       <c r="O18" s="1">
         <f>bcf_1_edited!N18*(heads_1!O19-heads_1!P19)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.2000000000000062E-3</v>
       </c>
       <c r="P18" s="1">
         <f>bcf_1_edited!O18*(heads_1!P19-heads_1!Q19)/100</f>
@@ -31426,19 +31426,19 @@
       </c>
       <c r="Q18" s="1">
         <f>bcf_1_edited!P18*(heads_1!Q19-heads_1!R19)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R18" s="1">
         <f>bcf_1_edited!Q18*(heads_1!R19-heads_1!S19)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="S18" s="1">
         <f>bcf_1_edited!R18*(heads_1!S19-heads_1!T19)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="T18" s="1">
         <f>bcf_1_edited!S18*(heads_1!T19-heads_1!U19)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="U18" s="1">
         <f>bcf_1_edited!T18*(heads_1!U19-heads_1!V19)/100</f>
@@ -31446,7 +31446,7 @@
       </c>
       <c r="V18" s="1">
         <f>bcf_1_edited!U18*(heads_1!V19-heads_1!W19)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="W18" s="1">
         <f>bcf_1_edited!V18*(heads_1!W19-heads_1!X19)/100</f>
@@ -31458,11 +31458,11 @@
       </c>
       <c r="Y18" s="1">
         <f>bcf_1_edited!X18*(heads_1!Y19-heads_1!Z19)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="Z18" s="1">
         <f>bcf_1_edited!Y18*(heads_1!Z19-heads_1!AA19)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
@@ -31476,11 +31476,11 @@
       </c>
       <c r="D19" s="1">
         <f>bcf_1_edited!C19*(heads_1!D20-heads_1!E20)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="E19" s="1">
         <f>bcf_1_edited!D19*(heads_1!E20-heads_1!F20)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="F19" s="1">
         <f>bcf_1_edited!E19*(heads_1!F20-heads_1!G20)/100</f>
@@ -31488,7 +31488,7 @@
       </c>
       <c r="G19" s="1">
         <f>bcf_1_edited!F19*(heads_1!G20-heads_1!H20)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="H19" s="1">
         <f>bcf_1_edited!G19*(heads_1!H20-heads_1!I20)/100</f>
@@ -31496,19 +31496,19 @@
       </c>
       <c r="I19" s="1">
         <f>bcf_1_edited!H19*(heads_1!I20-heads_1!J20)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="J19" s="1">
         <f>bcf_1_edited!I19*(heads_1!J20-heads_1!K20)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="K19" s="1">
         <f>bcf_1_edited!J19*(heads_1!K20-heads_1!L20)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="L19" s="1">
         <f>bcf_1_edited!K19*(heads_1!L20-heads_1!M20)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M19" s="1">
         <f>bcf_1_edited!L19*(heads_1!M20-heads_1!N20)/100</f>
@@ -31528,19 +31528,19 @@
       </c>
       <c r="Q19" s="1">
         <f>bcf_1_edited!P19*(heads_1!Q20-heads_1!R20)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R19" s="1">
         <f>bcf_1_edited!Q19*(heads_1!R20-heads_1!S20)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="S19" s="1">
         <f>bcf_1_edited!R19*(heads_1!S20-heads_1!T20)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="T19" s="1">
         <f>bcf_1_edited!S19*(heads_1!T20-heads_1!U20)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="U19" s="1">
         <f>bcf_1_edited!T19*(heads_1!U20-heads_1!V20)/100</f>
@@ -31548,7 +31548,7 @@
       </c>
       <c r="V19" s="1">
         <f>bcf_1_edited!U19*(heads_1!V20-heads_1!W20)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="W19" s="1">
         <f>bcf_1_edited!V19*(heads_1!W20-heads_1!X20)/100</f>
@@ -31556,11 +31556,11 @@
       </c>
       <c r="X19" s="1">
         <f>bcf_1_edited!W19*(heads_1!X20-heads_1!Y20)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="Y19" s="1">
         <f>bcf_1_edited!X19*(heads_1!Y20-heads_1!Z20)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="Z19" s="1">
         <f>bcf_1_edited!Y19*(heads_1!Z20-heads_1!AA20)/100</f>
@@ -31578,11 +31578,11 @@
       </c>
       <c r="D20" s="1">
         <f>bcf_1_edited!C20*(heads_1!D21-heads_1!E21)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="E20" s="1">
         <f>bcf_1_edited!D20*(heads_1!E21-heads_1!F21)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="F20" s="1">
         <f>bcf_1_edited!E20*(heads_1!F21-heads_1!G21)/100</f>
@@ -31598,19 +31598,19 @@
       </c>
       <c r="I20" s="1">
         <f>bcf_1_edited!H20*(heads_1!I21-heads_1!J21)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="J20" s="1">
         <f>bcf_1_edited!I20*(heads_1!J21-heads_1!K21)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="K20" s="1">
         <f>bcf_1_edited!J20*(heads_1!K21-heads_1!L21)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="L20" s="1">
         <f>bcf_1_edited!K20*(heads_1!L21-heads_1!M21)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M20" s="1">
         <f>bcf_1_edited!L20*(heads_1!M21-heads_1!N21)/100</f>
@@ -31630,19 +31630,19 @@
       </c>
       <c r="Q20" s="1">
         <f>bcf_1_edited!P20*(heads_1!Q21-heads_1!R21)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R20" s="1">
         <f>bcf_1_edited!Q20*(heads_1!R21-heads_1!S21)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="S20" s="1">
         <f>bcf_1_edited!R20*(heads_1!S21-heads_1!T21)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="T20" s="1">
         <f>bcf_1_edited!S20*(heads_1!T21-heads_1!U21)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="U20" s="1">
         <f>bcf_1_edited!T20*(heads_1!U21-heads_1!V21)/100</f>
@@ -31658,11 +31658,11 @@
       </c>
       <c r="X20" s="1">
         <f>bcf_1_edited!W20*(heads_1!X21-heads_1!Y21)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="Y20" s="1">
         <f>bcf_1_edited!X20*(heads_1!Y21-heads_1!Z21)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="Z20" s="1">
         <f>bcf_1_edited!Y20*(heads_1!Z21-heads_1!AA21)/100</f>
@@ -31708,11 +31708,11 @@
       </c>
       <c r="K21" s="1">
         <f>bcf_1_edited!J21*(heads_1!K22-heads_1!L22)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L21" s="1">
         <f>bcf_1_edited!K21*(heads_1!L22-heads_1!M22)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M21" s="1">
         <f>bcf_1_edited!L21*(heads_1!M22-heads_1!N22)/100</f>
@@ -31732,11 +31732,11 @@
       </c>
       <c r="Q21" s="1">
         <f>bcf_1_edited!P21*(heads_1!Q22-heads_1!R22)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R21" s="1">
         <f>bcf_1_edited!Q21*(heads_1!R22-heads_1!S22)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S21" s="1">
         <f>bcf_1_edited!R21*(heads_1!S22-heads_1!T22)/100</f>
@@ -31810,11 +31810,11 @@
       </c>
       <c r="K22" s="1">
         <f>bcf_1_edited!J22*(heads_1!K23-heads_1!L23)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L22" s="1">
         <f>bcf_1_edited!K22*(heads_1!L23-heads_1!M23)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M22" s="1">
         <f>bcf_1_edited!L22*(heads_1!M23-heads_1!N23)/100</f>
@@ -31834,11 +31834,11 @@
       </c>
       <c r="Q22" s="1">
         <f>bcf_1_edited!P22*(heads_1!Q23-heads_1!R23)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R22" s="1">
         <f>bcf_1_edited!Q22*(heads_1!R23-heads_1!S23)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S22" s="1">
         <f>bcf_1_edited!R22*(heads_1!S23-heads_1!T23)/100</f>
@@ -31912,11 +31912,11 @@
       </c>
       <c r="K23" s="1">
         <f>bcf_1_edited!J23*(heads_1!K24-heads_1!L24)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L23" s="1">
         <f>bcf_1_edited!K23*(heads_1!L24-heads_1!M24)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M23" s="1">
         <f>bcf_1_edited!L23*(heads_1!M24-heads_1!N24)/100</f>
@@ -31936,11 +31936,11 @@
       </c>
       <c r="Q23" s="1">
         <f>bcf_1_edited!P23*(heads_1!Q24-heads_1!R24)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R23" s="1">
         <f>bcf_1_edited!Q23*(heads_1!R24-heads_1!S24)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S23" s="1">
         <f>bcf_1_edited!R23*(heads_1!S24-heads_1!T24)/100</f>
@@ -32014,11 +32014,11 @@
       </c>
       <c r="K24" s="1">
         <f>bcf_1_edited!J24*(heads_1!K25-heads_1!L25)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L24" s="1">
         <f>bcf_1_edited!K24*(heads_1!L25-heads_1!M25)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M24" s="1">
         <f>bcf_1_edited!L24*(heads_1!M25-heads_1!N25)/100</f>
@@ -32038,11 +32038,11 @@
       </c>
       <c r="Q24" s="1">
         <f>bcf_1_edited!P24*(heads_1!Q25-heads_1!R25)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R24" s="1">
         <f>bcf_1_edited!Q24*(heads_1!R25-heads_1!S25)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S24" s="1">
         <f>bcf_1_edited!R24*(heads_1!S25-heads_1!T25)/100</f>
@@ -32116,11 +32116,11 @@
       </c>
       <c r="K25" s="1">
         <f>bcf_1_edited!J25*(heads_1!K26-heads_1!L26)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L25" s="1">
         <f>bcf_1_edited!K25*(heads_1!L26-heads_1!M26)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M25" s="1">
         <f>bcf_1_edited!L25*(heads_1!M26-heads_1!N26)/100</f>
@@ -32140,11 +32140,11 @@
       </c>
       <c r="Q25" s="1">
         <f>bcf_1_edited!P25*(heads_1!Q26-heads_1!R26)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R25" s="1">
         <f>bcf_1_edited!Q25*(heads_1!R26-heads_1!S26)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S25" s="1">
         <f>bcf_1_edited!R25*(heads_1!S26-heads_1!T26)/100</f>
@@ -32218,11 +32218,11 @@
       </c>
       <c r="K26" s="1">
         <f>bcf_1_edited!J26*(heads_1!K27-heads_1!L27)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L26" s="1">
         <f>bcf_1_edited!K26*(heads_1!L27-heads_1!M27)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M26" s="1">
         <f>bcf_1_edited!L26*(heads_1!M27-heads_1!N27)/100</f>
@@ -32242,11 +32242,11 @@
       </c>
       <c r="Q26" s="1">
         <f>bcf_1_edited!P26*(heads_1!Q27-heads_1!R27)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R26" s="1">
         <f>bcf_1_edited!Q26*(heads_1!R27-heads_1!S27)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S26" s="1">
         <f>bcf_1_edited!R26*(heads_1!S27-heads_1!T27)/100</f>
@@ -32320,11 +32320,11 @@
       </c>
       <c r="K27" s="1">
         <f>bcf_1_edited!J27*(heads_1!K28-heads_1!L28)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L27" s="1">
         <f>bcf_1_edited!K27*(heads_1!L28-heads_1!M28)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M27" s="1">
         <f>bcf_1_edited!L27*(heads_1!M28-heads_1!N28)/100</f>
@@ -32344,11 +32344,11 @@
       </c>
       <c r="Q27" s="1">
         <f>bcf_1_edited!P27*(heads_1!Q28-heads_1!R28)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R27" s="1">
         <f>bcf_1_edited!Q27*(heads_1!R28-heads_1!S28)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S27" s="1">
         <f>bcf_1_edited!R27*(heads_1!S28-heads_1!T28)/100</f>
@@ -32543,11 +32543,11 @@
       </c>
       <c r="K3" s="2">
         <f>2/(1/bcf_1_edited!I3+1/bcf_1_edited!J3)*(heads_1!K4-heads_1!L4)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L3" s="2">
         <f>2/(1/bcf_1_edited!J3+1/bcf_1_edited!K3)*(heads_1!L4-heads_1!M4)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M3" s="2">
         <f>2/(1/bcf_1_edited!K3+1/bcf_1_edited!L3)*(heads_1!M4-heads_1!N4)/100</f>
@@ -32567,11 +32567,11 @@
       </c>
       <c r="Q3" s="2">
         <f>2/(1/bcf_1_edited!O3+1/bcf_1_edited!P3)*(heads_1!Q4-heads_1!R4)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R3" s="2">
         <f>2/(1/bcf_1_edited!P3+1/bcf_1_edited!Q3)*(heads_1!R4-heads_1!S4)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S3" s="2">
         <f>2/(1/bcf_1_edited!Q3+1/bcf_1_edited!R3)*(heads_1!S4-heads_1!T4)/100</f>
@@ -32645,11 +32645,11 @@
       </c>
       <c r="K4" s="2">
         <f>2/(1/bcf_1_edited!I4+1/bcf_1_edited!J4)*(heads_1!K5-heads_1!L5)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L4" s="2">
         <f>2/(1/bcf_1_edited!J4+1/bcf_1_edited!K4)*(heads_1!L5-heads_1!M5)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M4" s="2">
         <f>2/(1/bcf_1_edited!K4+1/bcf_1_edited!L4)*(heads_1!M5-heads_1!N5)/100</f>
@@ -32669,11 +32669,11 @@
       </c>
       <c r="Q4" s="2">
         <f>2/(1/bcf_1_edited!O4+1/bcf_1_edited!P4)*(heads_1!Q5-heads_1!R5)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R4" s="2">
         <f>2/(1/bcf_1_edited!P4+1/bcf_1_edited!Q4)*(heads_1!R5-heads_1!S5)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S4" s="2">
         <f>2/(1/bcf_1_edited!Q4+1/bcf_1_edited!R4)*(heads_1!S5-heads_1!T5)/100</f>
@@ -32747,11 +32747,11 @@
       </c>
       <c r="K5" s="2">
         <f>2/(1/bcf_1_edited!I5+1/bcf_1_edited!J5)*(heads_1!K6-heads_1!L6)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L5" s="2">
         <f>2/(1/bcf_1_edited!J5+1/bcf_1_edited!K5)*(heads_1!L6-heads_1!M6)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M5" s="2">
         <f>2/(1/bcf_1_edited!K5+1/bcf_1_edited!L5)*(heads_1!M6-heads_1!N6)/100</f>
@@ -32771,11 +32771,11 @@
       </c>
       <c r="Q5" s="2">
         <f>2/(1/bcf_1_edited!O5+1/bcf_1_edited!P5)*(heads_1!Q6-heads_1!R6)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R5" s="2">
         <f>2/(1/bcf_1_edited!P5+1/bcf_1_edited!Q5)*(heads_1!R6-heads_1!S6)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S5" s="2">
         <f>2/(1/bcf_1_edited!Q5+1/bcf_1_edited!R5)*(heads_1!S6-heads_1!T6)/100</f>
@@ -32849,11 +32849,11 @@
       </c>
       <c r="K6" s="2">
         <f>2/(1/bcf_1_edited!I6+1/bcf_1_edited!J6)*(heads_1!K7-heads_1!L7)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L6" s="2">
         <f>2/(1/bcf_1_edited!J6+1/bcf_1_edited!K6)*(heads_1!L7-heads_1!M7)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M6" s="2">
         <f>2/(1/bcf_1_edited!K6+1/bcf_1_edited!L6)*(heads_1!M7-heads_1!N7)/100</f>
@@ -32873,11 +32873,11 @@
       </c>
       <c r="Q6" s="2">
         <f>2/(1/bcf_1_edited!O6+1/bcf_1_edited!P6)*(heads_1!Q7-heads_1!R7)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R6" s="2">
         <f>2/(1/bcf_1_edited!P6+1/bcf_1_edited!Q6)*(heads_1!R7-heads_1!S7)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S6" s="2">
         <f>2/(1/bcf_1_edited!Q6+1/bcf_1_edited!R6)*(heads_1!S7-heads_1!T7)/100</f>
@@ -32951,11 +32951,11 @@
       </c>
       <c r="K7" s="2">
         <f>2/(1/bcf_1_edited!I7+1/bcf_1_edited!J7)*(heads_1!K8-heads_1!L8)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L7" s="2">
         <f>2/(1/bcf_1_edited!J7+1/bcf_1_edited!K7)*(heads_1!L8-heads_1!M8)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M7" s="2">
         <f>2/(1/bcf_1_edited!K7+1/bcf_1_edited!L7)*(heads_1!M8-heads_1!N8)/100</f>
@@ -32975,11 +32975,11 @@
       </c>
       <c r="Q7" s="2">
         <f>2/(1/bcf_1_edited!O7+1/bcf_1_edited!P7)*(heads_1!Q8-heads_1!R8)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R7" s="2">
         <f>2/(1/bcf_1_edited!P7+1/bcf_1_edited!Q7)*(heads_1!R8-heads_1!S8)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S7" s="2">
         <f>2/(1/bcf_1_edited!Q7+1/bcf_1_edited!R7)*(heads_1!S8-heads_1!T8)/100</f>
@@ -33053,11 +33053,11 @@
       </c>
       <c r="K8" s="2">
         <f>2/(1/bcf_1_edited!I8+1/bcf_1_edited!J8)*(heads_1!K9-heads_1!L9)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L8" s="2">
         <f>2/(1/bcf_1_edited!J8+1/bcf_1_edited!K8)*(heads_1!L9-heads_1!M9)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M8" s="2">
         <f>2/(1/bcf_1_edited!K8+1/bcf_1_edited!L8)*(heads_1!M9-heads_1!N9)/100</f>
@@ -33077,11 +33077,11 @@
       </c>
       <c r="Q8" s="2">
         <f>2/(1/bcf_1_edited!O8+1/bcf_1_edited!P8)*(heads_1!Q9-heads_1!R9)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R8" s="2">
         <f>2/(1/bcf_1_edited!P8+1/bcf_1_edited!Q8)*(heads_1!R9-heads_1!S9)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S8" s="2">
         <f>2/(1/bcf_1_edited!Q8+1/bcf_1_edited!R8)*(heads_1!S9-heads_1!T9)/100</f>
@@ -33155,11 +33155,11 @@
       </c>
       <c r="K9" s="2">
         <f>2/(1/bcf_1_edited!I9+1/bcf_1_edited!J9)*(heads_1!K10-heads_1!L10)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L9" s="2">
         <f>2/(1/bcf_1_edited!J9+1/bcf_1_edited!K9)*(heads_1!L10-heads_1!M10)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M9" s="2">
         <f>2/(1/bcf_1_edited!K9+1/bcf_1_edited!L9)*(heads_1!M10-heads_1!N10)/100</f>
@@ -33179,11 +33179,11 @@
       </c>
       <c r="Q9" s="2">
         <f>2/(1/bcf_1_edited!O9+1/bcf_1_edited!P9)*(heads_1!Q10-heads_1!R10)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R9" s="2">
         <f>2/(1/bcf_1_edited!P9+1/bcf_1_edited!Q9)*(heads_1!R10-heads_1!S10)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S9" s="2">
         <f>2/(1/bcf_1_edited!Q9+1/bcf_1_edited!R9)*(heads_1!S10-heads_1!T10)/100</f>
@@ -33229,11 +33229,11 @@
       </c>
       <c r="D10" s="2">
         <f>2/(1/bcf_1_edited!B10+1/bcf_1_edited!C10)*(heads_1!D11-heads_1!E11)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="E10" s="2">
         <f>2/(1/bcf_1_edited!C10+1/bcf_1_edited!D10)*(heads_1!E11-heads_1!F11)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="F10" s="2">
         <f>2/(1/bcf_1_edited!D10+1/bcf_1_edited!E10)*(heads_1!F11-heads_1!G11)/100</f>
@@ -33249,19 +33249,19 @@
       </c>
       <c r="I10" s="2">
         <f>2/(1/bcf_1_edited!G10+1/bcf_1_edited!H10)*(heads_1!I11-heads_1!J11)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="J10" s="2">
         <f>2/(1/bcf_1_edited!H10+1/bcf_1_edited!I10)*(heads_1!J11-heads_1!K11)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="K10" s="2">
         <f>2/(1/bcf_1_edited!I10+1/bcf_1_edited!J10)*(heads_1!K11-heads_1!L11)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="L10" s="2">
         <f>2/(1/bcf_1_edited!J10+1/bcf_1_edited!K10)*(heads_1!L11-heads_1!M11)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M10" s="2">
         <f>2/(1/bcf_1_edited!K10+1/bcf_1_edited!L10)*(heads_1!M11-heads_1!N11)/100</f>
@@ -33281,19 +33281,19 @@
       </c>
       <c r="Q10" s="2">
         <f>2/(1/bcf_1_edited!O10+1/bcf_1_edited!P10)*(heads_1!Q11-heads_1!R11)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R10" s="2">
         <f>2/(1/bcf_1_edited!P10+1/bcf_1_edited!Q10)*(heads_1!R11-heads_1!S11)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="S10" s="2">
         <f>2/(1/bcf_1_edited!Q10+1/bcf_1_edited!R10)*(heads_1!S11-heads_1!T11)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="T10" s="2">
         <f>2/(1/bcf_1_edited!R10+1/bcf_1_edited!S10)*(heads_1!T11-heads_1!U11)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="U10" s="2">
         <f>2/(1/bcf_1_edited!S10+1/bcf_1_edited!T10)*(heads_1!U11-heads_1!V11)/100</f>
@@ -33309,11 +33309,11 @@
       </c>
       <c r="X10" s="2">
         <f>2/(1/bcf_1_edited!V10+1/bcf_1_edited!W10)*(heads_1!X11-heads_1!Y11)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="Y10" s="2">
         <f>2/(1/bcf_1_edited!W10+1/bcf_1_edited!X10)*(heads_1!Y11-heads_1!Z11)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="Z10" s="2">
         <f>2/(1/bcf_1_edited!X10+1/bcf_1_edited!Y10)*(heads_1!Z11-heads_1!AA11)/100</f>
@@ -33331,11 +33331,11 @@
       </c>
       <c r="D11" s="2">
         <f>2/(1/bcf_1_edited!B11+1/bcf_1_edited!C11)*(heads_1!D12-heads_1!E12)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="E11" s="2">
         <f>2/(1/bcf_1_edited!C11+1/bcf_1_edited!D11)*(heads_1!E12-heads_1!F12)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="F11" s="2">
         <f>2/(1/bcf_1_edited!D11+1/bcf_1_edited!E11)*(heads_1!F12-heads_1!G12)/100</f>
@@ -33343,7 +33343,7 @@
       </c>
       <c r="G11" s="2">
         <f>2/(1/bcf_1_edited!E11+1/bcf_1_edited!F11)*(heads_1!G12-heads_1!H12)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="H11" s="2">
         <f>2/(1/bcf_1_edited!F11+1/bcf_1_edited!G11)*(heads_1!H12-heads_1!I12)/100</f>
@@ -33351,19 +33351,19 @@
       </c>
       <c r="I11" s="2">
         <f>2/(1/bcf_1_edited!G11+1/bcf_1_edited!H11)*(heads_1!I12-heads_1!J12)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="J11" s="2">
         <f>2/(1/bcf_1_edited!H11+1/bcf_1_edited!I11)*(heads_1!J12-heads_1!K12)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="K11" s="2">
         <f>2/(1/bcf_1_edited!I11+1/bcf_1_edited!J11)*(heads_1!K12-heads_1!L12)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="L11" s="2">
         <f>2/(1/bcf_1_edited!J11+1/bcf_1_edited!K11)*(heads_1!L12-heads_1!M12)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M11" s="2">
         <f>2/(1/bcf_1_edited!K11+1/bcf_1_edited!L11)*(heads_1!M12-heads_1!N12)/100</f>
@@ -33383,19 +33383,19 @@
       </c>
       <c r="Q11" s="2">
         <f>2/(1/bcf_1_edited!O11+1/bcf_1_edited!P11)*(heads_1!Q12-heads_1!R12)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R11" s="2">
         <f>2/(1/bcf_1_edited!P11+1/bcf_1_edited!Q11)*(heads_1!R12-heads_1!S12)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="S11" s="2">
         <f>2/(1/bcf_1_edited!Q11+1/bcf_1_edited!R11)*(heads_1!S12-heads_1!T12)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="T11" s="2">
         <f>2/(1/bcf_1_edited!R11+1/bcf_1_edited!S11)*(heads_1!T12-heads_1!U12)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="U11" s="2">
         <f>2/(1/bcf_1_edited!S11+1/bcf_1_edited!T11)*(heads_1!U12-heads_1!V12)/100</f>
@@ -33403,7 +33403,7 @@
       </c>
       <c r="V11" s="2">
         <f>2/(1/bcf_1_edited!T11+1/bcf_1_edited!U11)*(heads_1!V12-heads_1!W12)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="W11" s="2">
         <f>2/(1/bcf_1_edited!U11+1/bcf_1_edited!V11)*(heads_1!W12-heads_1!X12)/100</f>
@@ -33411,11 +33411,11 @@
       </c>
       <c r="X11" s="2">
         <f>2/(1/bcf_1_edited!V11+1/bcf_1_edited!W11)*(heads_1!X12-heads_1!Y12)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="Y11" s="2">
         <f>2/(1/bcf_1_edited!W11+1/bcf_1_edited!X11)*(heads_1!Y12-heads_1!Z12)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="Z11" s="2">
         <f>2/(1/bcf_1_edited!X11+1/bcf_1_edited!Y11)*(heads_1!Z12-heads_1!AA12)/100</f>
@@ -33429,11 +33429,11 @@
       </c>
       <c r="C12" s="2">
         <f>2/(1/bcf_1_edited!A12+1/bcf_1_edited!B12)*(heads_1!C13-heads_1!D13)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="D12" s="2">
         <f>2/(1/bcf_1_edited!B12+1/bcf_1_edited!C12)*(heads_1!D13-heads_1!E13)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="E12" s="2">
         <f>2/(1/bcf_1_edited!C12+1/bcf_1_edited!D12)*(heads_1!E13-heads_1!F13)/100</f>
@@ -33445,7 +33445,7 @@
       </c>
       <c r="G12" s="2">
         <f>2/(1/bcf_1_edited!E12+1/bcf_1_edited!F12)*(heads_1!G13-heads_1!H13)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="H12" s="2">
         <f>2/(1/bcf_1_edited!F12+1/bcf_1_edited!G12)*(heads_1!H13-heads_1!I13)/100</f>
@@ -33453,19 +33453,19 @@
       </c>
       <c r="I12" s="2">
         <f>2/(1/bcf_1_edited!G12+1/bcf_1_edited!H12)*(heads_1!I13-heads_1!J13)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="J12" s="2">
         <f>2/(1/bcf_1_edited!H12+1/bcf_1_edited!I12)*(heads_1!J13-heads_1!K13)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="K12" s="2">
         <f>2/(1/bcf_1_edited!I12+1/bcf_1_edited!J12)*(heads_1!K13-heads_1!L13)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="L12" s="2">
         <f>2/(1/bcf_1_edited!J12+1/bcf_1_edited!K12)*(heads_1!L13-heads_1!M13)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M12" s="2">
         <f>2/(1/bcf_1_edited!K12+1/bcf_1_edited!L12)*(heads_1!M13-heads_1!N13)/100</f>
@@ -33473,11 +33473,11 @@
       </c>
       <c r="N12" s="2">
         <f>2/(1/bcf_1_edited!L12+1/bcf_1_edited!M12)*(heads_1!N13-heads_1!O13)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.2000000000000062E-3</v>
       </c>
       <c r="O12" s="2">
         <f>2/(1/bcf_1_edited!M12+1/bcf_1_edited!N12)*(heads_1!O13-heads_1!P13)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.2000000000000062E-3</v>
       </c>
       <c r="P12" s="2">
         <f>2/(1/bcf_1_edited!N12+1/bcf_1_edited!O12)*(heads_1!P13-heads_1!Q13)/100</f>
@@ -33485,19 +33485,19 @@
       </c>
       <c r="Q12" s="2">
         <f>2/(1/bcf_1_edited!O12+1/bcf_1_edited!P12)*(heads_1!Q13-heads_1!R13)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R12" s="2">
         <f>2/(1/bcf_1_edited!P12+1/bcf_1_edited!Q12)*(heads_1!R13-heads_1!S13)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="S12" s="2">
         <f>2/(1/bcf_1_edited!Q12+1/bcf_1_edited!R12)*(heads_1!S13-heads_1!T13)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="T12" s="2">
         <f>2/(1/bcf_1_edited!R12+1/bcf_1_edited!S12)*(heads_1!T13-heads_1!U13)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="U12" s="2">
         <f>2/(1/bcf_1_edited!S12+1/bcf_1_edited!T12)*(heads_1!U13-heads_1!V13)/100</f>
@@ -33505,7 +33505,7 @@
       </c>
       <c r="V12" s="2">
         <f>2/(1/bcf_1_edited!T12+1/bcf_1_edited!U12)*(heads_1!V13-heads_1!W13)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="W12" s="2">
         <f>2/(1/bcf_1_edited!U12+1/bcf_1_edited!V12)*(heads_1!W13-heads_1!X13)/100</f>
@@ -33517,11 +33517,11 @@
       </c>
       <c r="Y12" s="2">
         <f>2/(1/bcf_1_edited!W12+1/bcf_1_edited!X12)*(heads_1!Y13-heads_1!Z13)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="Z12" s="2">
         <f>2/(1/bcf_1_edited!X12+1/bcf_1_edited!Y12)*(heads_1!Z13-heads_1!AA13)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -33531,11 +33531,11 @@
       </c>
       <c r="C13" s="2">
         <f>2/(1/bcf_1_edited!A13+1/bcf_1_edited!B13)*(heads_1!C14-heads_1!D14)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="D13" s="2">
         <f>2/(1/bcf_1_edited!B13+1/bcf_1_edited!C13)*(heads_1!D14-heads_1!E14)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="E13" s="2">
         <f>2/(1/bcf_1_edited!C13+1/bcf_1_edited!D13)*(heads_1!E14-heads_1!F14)/100</f>
@@ -33547,15 +33547,15 @@
       </c>
       <c r="G13" s="2">
         <f>2/(1/bcf_1_edited!E13+1/bcf_1_edited!F13)*(heads_1!G14-heads_1!H14)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="H13" s="2">
         <f>2/(1/bcf_1_edited!F13+1/bcf_1_edited!G13)*(heads_1!H14-heads_1!I14)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="I13" s="2">
         <f>2/(1/bcf_1_edited!G13+1/bcf_1_edited!H13)*(heads_1!I14-heads_1!J14)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="J13" s="2">
         <f>2/(1/bcf_1_edited!H13+1/bcf_1_edited!I13)*(heads_1!J14-heads_1!K14)/100</f>
@@ -33567,27 +33567,27 @@
       </c>
       <c r="L13" s="2">
         <f>2/(1/bcf_1_edited!J13+1/bcf_1_edited!K13)*(heads_1!L14-heads_1!M14)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.2000000000000062E-3</v>
       </c>
       <c r="M13" s="2">
         <f>2/(1/bcf_1_edited!K13+1/bcf_1_edited!L13)*(heads_1!M14-heads_1!N14)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1999999999999884E-3</v>
       </c>
       <c r="N13" s="2">
         <f>2/(1/bcf_1_edited!L13+1/bcf_1_edited!M13)*(heads_1!N14-heads_1!O14)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.3000000000000043E-3</v>
       </c>
       <c r="O13" s="2">
         <f>2/(1/bcf_1_edited!M13+1/bcf_1_edited!N13)*(heads_1!O14-heads_1!P14)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.3000000000000043E-3</v>
       </c>
       <c r="P13" s="2">
         <f>2/(1/bcf_1_edited!N13+1/bcf_1_edited!O13)*(heads_1!P14-heads_1!Q14)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1999999999999884E-3</v>
       </c>
       <c r="Q13" s="2">
         <f>2/(1/bcf_1_edited!O13+1/bcf_1_edited!P13)*(heads_1!Q14-heads_1!R14)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.2000000000000062E-3</v>
       </c>
       <c r="R13" s="2">
         <f>2/(1/bcf_1_edited!P13+1/bcf_1_edited!Q13)*(heads_1!R14-heads_1!S14)/100</f>
@@ -33599,15 +33599,15 @@
       </c>
       <c r="T13" s="2">
         <f>2/(1/bcf_1_edited!R13+1/bcf_1_edited!S13)*(heads_1!T14-heads_1!U14)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="U13" s="2">
         <f>2/(1/bcf_1_edited!S13+1/bcf_1_edited!T13)*(heads_1!U14-heads_1!V14)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="V13" s="2">
         <f>2/(1/bcf_1_edited!T13+1/bcf_1_edited!U13)*(heads_1!V14-heads_1!W14)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="W13" s="2">
         <f>2/(1/bcf_1_edited!U13+1/bcf_1_edited!V13)*(heads_1!W14-heads_1!X14)/100</f>
@@ -33619,11 +33619,11 @@
       </c>
       <c r="Y13" s="2">
         <f>2/(1/bcf_1_edited!W13+1/bcf_1_edited!X13)*(heads_1!Y14-heads_1!Z14)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="Z13" s="2">
         <f>2/(1/bcf_1_edited!X13+1/bcf_1_edited!Y13)*(heads_1!Z14-heads_1!AA14)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -33633,99 +33633,99 @@
       </c>
       <c r="C14" s="2">
         <f>2/(1/bcf_1_edited!A14+1/bcf_1_edited!B14)*(heads_1!C15-heads_1!D15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="D14" s="2">
         <f>2/(1/bcf_1_edited!B14+1/bcf_1_edited!C14)*(heads_1!D15-heads_1!E15)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="E14" s="2">
         <f>2/(1/bcf_1_edited!C14+1/bcf_1_edited!D14)*(heads_1!E15-heads_1!F15)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="F14" s="2">
         <f>2/(1/bcf_1_edited!D14+1/bcf_1_edited!E14)*(heads_1!F15-heads_1!G15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="G14" s="2">
         <f>2/(1/bcf_1_edited!E14+1/bcf_1_edited!F14)*(heads_1!G15-heads_1!H15)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="H14" s="2">
         <f>2/(1/bcf_1_edited!F14+1/bcf_1_edited!G14)*(heads_1!H15-heads_1!I15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="I14" s="2">
         <f>2/(1/bcf_1_edited!G14+1/bcf_1_edited!H14)*(heads_1!I15-heads_1!J15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="J14" s="2">
         <f>2/(1/bcf_1_edited!H14+1/bcf_1_edited!I14)*(heads_1!J15-heads_1!K15)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="K14" s="2">
         <f>2/(1/bcf_1_edited!I14+1/bcf_1_edited!J14)*(heads_1!K15-heads_1!L15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="L14" s="2">
         <f>2/(1/bcf_1_edited!J14+1/bcf_1_edited!K14)*(heads_1!L15-heads_1!M15)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="M14" s="2">
         <f>2/(1/bcf_1_edited!K14+1/bcf_1_edited!L14)*(heads_1!M15-heads_1!N15)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N14" s="2">
         <f>2/(1/bcf_1_edited!L14+1/bcf_1_edited!M14)*(heads_1!N15-heads_1!O15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>3.3000000000000008E-3</v>
       </c>
       <c r="O14" s="2">
         <f>2/(1/bcf_1_edited!M14+1/bcf_1_edited!N14)*(heads_1!O15-heads_1!P15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>3.3000000000000008E-3</v>
       </c>
       <c r="P14" s="2">
         <f>2/(1/bcf_1_edited!N14+1/bcf_1_edited!O14)*(heads_1!P15-heads_1!Q15)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="Q14" s="2">
         <f>2/(1/bcf_1_edited!O14+1/bcf_1_edited!P14)*(heads_1!Q15-heads_1!R15)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="R14" s="2">
         <f>2/(1/bcf_1_edited!P14+1/bcf_1_edited!Q14)*(heads_1!R15-heads_1!S15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="S14" s="2">
         <f>2/(1/bcf_1_edited!Q14+1/bcf_1_edited!R14)*(heads_1!S15-heads_1!T15)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="T14" s="2">
         <f>2/(1/bcf_1_edited!R14+1/bcf_1_edited!S14)*(heads_1!T15-heads_1!U15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="U14" s="2">
         <f>2/(1/bcf_1_edited!S14+1/bcf_1_edited!T14)*(heads_1!U15-heads_1!V15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="V14" s="2">
         <f>2/(1/bcf_1_edited!T14+1/bcf_1_edited!U14)*(heads_1!V15-heads_1!W15)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="W14" s="2">
         <f>2/(1/bcf_1_edited!U14+1/bcf_1_edited!V14)*(heads_1!W15-heads_1!X15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="X14" s="2">
         <f>2/(1/bcf_1_edited!V14+1/bcf_1_edited!W14)*(heads_1!X15-heads_1!Y15)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="Y14" s="2">
         <f>2/(1/bcf_1_edited!W14+1/bcf_1_edited!X14)*(heads_1!Y15-heads_1!Z15)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="Z14" s="2">
         <f>2/(1/bcf_1_edited!X14+1/bcf_1_edited!Y14)*(heads_1!Z15-heads_1!AA15)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -33735,11 +33735,11 @@
       </c>
       <c r="C15" s="2">
         <f>2/(1/bcf_1_edited!A15+1/bcf_1_edited!B15)*(heads_1!C16-heads_1!D16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="D15" s="2">
         <f>2/(1/bcf_1_edited!B15+1/bcf_1_edited!C15)*(heads_1!D16-heads_1!E16)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="E15" s="2">
         <f>2/(1/bcf_1_edited!C15+1/bcf_1_edited!D15)*(heads_1!E16-heads_1!F16)/100</f>
@@ -33747,75 +33747,75 @@
       </c>
       <c r="F15" s="2">
         <f>2/(1/bcf_1_edited!D15+1/bcf_1_edited!E15)*(heads_1!F16-heads_1!G16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="G15" s="2">
         <f>2/(1/bcf_1_edited!E15+1/bcf_1_edited!F15)*(heads_1!G16-heads_1!H16)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="H15" s="2">
         <f>2/(1/bcf_1_edited!F15+1/bcf_1_edited!G15)*(heads_1!H16-heads_1!I16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="I15" s="2">
         <f>2/(1/bcf_1_edited!G15+1/bcf_1_edited!H15)*(heads_1!I16-heads_1!J16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="J15" s="2">
         <f>2/(1/bcf_1_edited!H15+1/bcf_1_edited!I15)*(heads_1!J16-heads_1!K16)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="K15" s="2">
         <f>2/(1/bcf_1_edited!I15+1/bcf_1_edited!J15)*(heads_1!K16-heads_1!L16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.8000000000000149E-3</v>
       </c>
       <c r="L15" s="2">
         <f>2/(1/bcf_1_edited!J15+1/bcf_1_edited!K15)*(heads_1!L16-heads_1!M16)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="M15" s="2">
         <f>2/(1/bcf_1_edited!K15+1/bcf_1_edited!L15)*(heads_1!M16-heads_1!N16)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.5999999999999977E-3</v>
       </c>
       <c r="N15" s="2">
         <f>2/(1/bcf_1_edited!L15+1/bcf_1_edited!M15)*(heads_1!N16-heads_1!O16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>3.3999999999999985E-3</v>
       </c>
       <c r="O15" s="2">
         <f>2/(1/bcf_1_edited!M15+1/bcf_1_edited!N15)*(heads_1!O16-heads_1!P16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>3.3999999999999985E-3</v>
       </c>
       <c r="P15" s="2">
         <f>2/(1/bcf_1_edited!N15+1/bcf_1_edited!O15)*(heads_1!P16-heads_1!Q16)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.5999999999999977E-3</v>
       </c>
       <c r="Q15" s="2">
         <f>2/(1/bcf_1_edited!O15+1/bcf_1_edited!P15)*(heads_1!Q16-heads_1!R16)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="R15" s="2">
         <f>2/(1/bcf_1_edited!P15+1/bcf_1_edited!Q15)*(heads_1!R16-heads_1!S16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.8000000000000149E-3</v>
       </c>
       <c r="S15" s="2">
         <f>2/(1/bcf_1_edited!Q15+1/bcf_1_edited!R15)*(heads_1!S16-heads_1!T16)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="T15" s="2">
         <f>2/(1/bcf_1_edited!R15+1/bcf_1_edited!S15)*(heads_1!T16-heads_1!U16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="U15" s="2">
         <f>2/(1/bcf_1_edited!S15+1/bcf_1_edited!T15)*(heads_1!U16-heads_1!V16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="V15" s="2">
         <f>2/(1/bcf_1_edited!T15+1/bcf_1_edited!U15)*(heads_1!V16-heads_1!W16)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="W15" s="2">
         <f>2/(1/bcf_1_edited!U15+1/bcf_1_edited!V15)*(heads_1!W16-heads_1!X16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="X15" s="2">
         <f>2/(1/bcf_1_edited!V15+1/bcf_1_edited!W15)*(heads_1!X16-heads_1!Y16)/100</f>
@@ -33823,11 +33823,11 @@
       </c>
       <c r="Y15" s="2">
         <f>2/(1/bcf_1_edited!W15+1/bcf_1_edited!X15)*(heads_1!Y16-heads_1!Z16)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="Z15" s="2">
         <f>2/(1/bcf_1_edited!X15+1/bcf_1_edited!Y15)*(heads_1!Z16-heads_1!AA16)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -33837,99 +33837,99 @@
       </c>
       <c r="C16" s="2">
         <f>2/(1/bcf_1_edited!A16+1/bcf_1_edited!B16)*(heads_1!C17-heads_1!D17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="D16" s="2">
         <f>2/(1/bcf_1_edited!B16+1/bcf_1_edited!C16)*(heads_1!D17-heads_1!E17)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="E16" s="2">
         <f>2/(1/bcf_1_edited!C16+1/bcf_1_edited!D16)*(heads_1!E17-heads_1!F17)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="F16" s="2">
         <f>2/(1/bcf_1_edited!D16+1/bcf_1_edited!E16)*(heads_1!F17-heads_1!G17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="G16" s="2">
         <f>2/(1/bcf_1_edited!E16+1/bcf_1_edited!F16)*(heads_1!G17-heads_1!H17)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="H16" s="2">
         <f>2/(1/bcf_1_edited!F16+1/bcf_1_edited!G16)*(heads_1!H17-heads_1!I17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="I16" s="2">
         <f>2/(1/bcf_1_edited!G16+1/bcf_1_edited!H16)*(heads_1!I17-heads_1!J17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="J16" s="2">
         <f>2/(1/bcf_1_edited!H16+1/bcf_1_edited!I16)*(heads_1!J17-heads_1!K17)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="K16" s="2">
         <f>2/(1/bcf_1_edited!I16+1/bcf_1_edited!J16)*(heads_1!K17-heads_1!L17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="L16" s="2">
         <f>2/(1/bcf_1_edited!J16+1/bcf_1_edited!K16)*(heads_1!L17-heads_1!M17)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="M16" s="2">
         <f>2/(1/bcf_1_edited!K16+1/bcf_1_edited!L16)*(heads_1!M17-heads_1!N17)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N16" s="2">
         <f>2/(1/bcf_1_edited!L16+1/bcf_1_edited!M16)*(heads_1!N17-heads_1!O17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>3.3000000000000008E-3</v>
       </c>
       <c r="O16" s="2">
         <f>2/(1/bcf_1_edited!M16+1/bcf_1_edited!N16)*(heads_1!O17-heads_1!P17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>3.3000000000000008E-3</v>
       </c>
       <c r="P16" s="2">
         <f>2/(1/bcf_1_edited!N16+1/bcf_1_edited!O16)*(heads_1!P17-heads_1!Q17)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="Q16" s="2">
         <f>2/(1/bcf_1_edited!O16+1/bcf_1_edited!P16)*(heads_1!Q17-heads_1!R17)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="R16" s="2">
         <f>2/(1/bcf_1_edited!P16+1/bcf_1_edited!Q16)*(heads_1!R17-heads_1!S17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.7999999999999971E-3</v>
       </c>
       <c r="S16" s="2">
         <f>2/(1/bcf_1_edited!Q16+1/bcf_1_edited!R16)*(heads_1!S17-heads_1!T17)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="T16" s="2">
         <f>2/(1/bcf_1_edited!R16+1/bcf_1_edited!S16)*(heads_1!T17-heads_1!U17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="U16" s="2">
         <f>2/(1/bcf_1_edited!S16+1/bcf_1_edited!T16)*(heads_1!U17-heads_1!V17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="V16" s="2">
         <f>2/(1/bcf_1_edited!T16+1/bcf_1_edited!U16)*(heads_1!V17-heads_1!W17)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9000000000000128E-3</v>
       </c>
       <c r="W16" s="2">
         <f>2/(1/bcf_1_edited!U16+1/bcf_1_edited!V16)*(heads_1!W17-heads_1!X17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="X16" s="2">
         <f>2/(1/bcf_1_edited!V16+1/bcf_1_edited!W16)*(heads_1!X17-heads_1!Y17)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>1.899999999999995E-3</v>
       </c>
       <c r="Y16" s="2">
         <f>2/(1/bcf_1_edited!W16+1/bcf_1_edited!X16)*(heads_1!Y17-heads_1!Z17)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="Z16" s="2">
         <f>2/(1/bcf_1_edited!X16+1/bcf_1_edited!Y16)*(heads_1!Z17-heads_1!AA17)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
@@ -33939,11 +33939,11 @@
       </c>
       <c r="C17" s="2">
         <f>2/(1/bcf_1_edited!A17+1/bcf_1_edited!B17)*(heads_1!C18-heads_1!D18)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="D17" s="2">
         <f>2/(1/bcf_1_edited!B17+1/bcf_1_edited!C17)*(heads_1!D18-heads_1!E18)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="E17" s="2">
         <f>2/(1/bcf_1_edited!C17+1/bcf_1_edited!D17)*(heads_1!E18-heads_1!F18)/100</f>
@@ -33955,15 +33955,15 @@
       </c>
       <c r="G17" s="2">
         <f>2/(1/bcf_1_edited!E17+1/bcf_1_edited!F17)*(heads_1!G18-heads_1!H18)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="H17" s="2">
         <f>2/(1/bcf_1_edited!F17+1/bcf_1_edited!G17)*(heads_1!H18-heads_1!I18)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="I17" s="2">
         <f>2/(1/bcf_1_edited!G17+1/bcf_1_edited!H17)*(heads_1!I18-heads_1!J18)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="J17" s="2">
         <f>2/(1/bcf_1_edited!H17+1/bcf_1_edited!I17)*(heads_1!J18-heads_1!K18)/100</f>
@@ -33975,27 +33975,27 @@
       </c>
       <c r="L17" s="2">
         <f>2/(1/bcf_1_edited!J17+1/bcf_1_edited!K17)*(heads_1!L18-heads_1!M18)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.2000000000000062E-3</v>
       </c>
       <c r="M17" s="2">
         <f>2/(1/bcf_1_edited!K17+1/bcf_1_edited!L17)*(heads_1!M18-heads_1!N18)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1999999999999884E-3</v>
       </c>
       <c r="N17" s="2">
         <f>2/(1/bcf_1_edited!L17+1/bcf_1_edited!M17)*(heads_1!N18-heads_1!O18)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.3000000000000043E-3</v>
       </c>
       <c r="O17" s="2">
         <f>2/(1/bcf_1_edited!M17+1/bcf_1_edited!N17)*(heads_1!O18-heads_1!P18)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.3000000000000043E-3</v>
       </c>
       <c r="P17" s="2">
         <f>2/(1/bcf_1_edited!N17+1/bcf_1_edited!O17)*(heads_1!P18-heads_1!Q18)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1999999999999884E-3</v>
       </c>
       <c r="Q17" s="2">
         <f>2/(1/bcf_1_edited!O17+1/bcf_1_edited!P17)*(heads_1!Q18-heads_1!R18)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.2000000000000062E-3</v>
       </c>
       <c r="R17" s="2">
         <f>2/(1/bcf_1_edited!P17+1/bcf_1_edited!Q17)*(heads_1!R18-heads_1!S18)/100</f>
@@ -34007,15 +34007,15 @@
       </c>
       <c r="T17" s="2">
         <f>2/(1/bcf_1_edited!R17+1/bcf_1_edited!S17)*(heads_1!T18-heads_1!U18)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="U17" s="2">
         <f>2/(1/bcf_1_edited!S17+1/bcf_1_edited!T17)*(heads_1!U18-heads_1!V18)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="V17" s="2">
         <f>2/(1/bcf_1_edited!T17+1/bcf_1_edited!U17)*(heads_1!V18-heads_1!W18)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="W17" s="2">
         <f>2/(1/bcf_1_edited!U17+1/bcf_1_edited!V17)*(heads_1!W18-heads_1!X18)/100</f>
@@ -34027,11 +34027,11 @@
       </c>
       <c r="Y17" s="2">
         <f>2/(1/bcf_1_edited!W17+1/bcf_1_edited!X17)*(heads_1!Y18-heads_1!Z18)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.0000000000000104E-3</v>
       </c>
       <c r="Z17" s="2">
         <f>2/(1/bcf_1_edited!X17+1/bcf_1_edited!Y17)*(heads_1!Z18-heads_1!AA18)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
@@ -34041,11 +34041,11 @@
       </c>
       <c r="C18" s="2">
         <f>2/(1/bcf_1_edited!A18+1/bcf_1_edited!B18)*(heads_1!C19-heads_1!D19)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="D18" s="2">
         <f>2/(1/bcf_1_edited!B18+1/bcf_1_edited!C18)*(heads_1!D19-heads_1!E19)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="E18" s="2">
         <f>2/(1/bcf_1_edited!C18+1/bcf_1_edited!D18)*(heads_1!E19-heads_1!F19)/100</f>
@@ -34057,7 +34057,7 @@
       </c>
       <c r="G18" s="2">
         <f>2/(1/bcf_1_edited!E18+1/bcf_1_edited!F18)*(heads_1!G19-heads_1!H19)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="H18" s="2">
         <f>2/(1/bcf_1_edited!F18+1/bcf_1_edited!G18)*(heads_1!H19-heads_1!I19)/100</f>
@@ -34065,19 +34065,19 @@
       </c>
       <c r="I18" s="2">
         <f>2/(1/bcf_1_edited!G18+1/bcf_1_edited!H18)*(heads_1!I19-heads_1!J19)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="J18" s="2">
         <f>2/(1/bcf_1_edited!H18+1/bcf_1_edited!I18)*(heads_1!J19-heads_1!K19)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="K18" s="2">
         <f>2/(1/bcf_1_edited!I18+1/bcf_1_edited!J18)*(heads_1!K19-heads_1!L19)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="L18" s="2">
         <f>2/(1/bcf_1_edited!J18+1/bcf_1_edited!K18)*(heads_1!L19-heads_1!M19)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M18" s="2">
         <f>2/(1/bcf_1_edited!K18+1/bcf_1_edited!L18)*(heads_1!M19-heads_1!N19)/100</f>
@@ -34085,11 +34085,11 @@
       </c>
       <c r="N18" s="2">
         <f>2/(1/bcf_1_edited!L18+1/bcf_1_edited!M18)*(heads_1!N19-heads_1!O19)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.2000000000000062E-3</v>
       </c>
       <c r="O18" s="2">
         <f>2/(1/bcf_1_edited!M18+1/bcf_1_edited!N18)*(heads_1!O19-heads_1!P19)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.2000000000000062E-3</v>
       </c>
       <c r="P18" s="2">
         <f>2/(1/bcf_1_edited!N18+1/bcf_1_edited!O18)*(heads_1!P19-heads_1!Q19)/100</f>
@@ -34097,19 +34097,19 @@
       </c>
       <c r="Q18" s="2">
         <f>2/(1/bcf_1_edited!O18+1/bcf_1_edited!P18)*(heads_1!Q19-heads_1!R19)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R18" s="2">
         <f>2/(1/bcf_1_edited!P18+1/bcf_1_edited!Q18)*(heads_1!R19-heads_1!S19)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="S18" s="2">
         <f>2/(1/bcf_1_edited!Q18+1/bcf_1_edited!R18)*(heads_1!S19-heads_1!T19)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="T18" s="2">
         <f>2/(1/bcf_1_edited!R18+1/bcf_1_edited!S18)*(heads_1!T19-heads_1!U19)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="U18" s="2">
         <f>2/(1/bcf_1_edited!S18+1/bcf_1_edited!T18)*(heads_1!U19-heads_1!V19)/100</f>
@@ -34117,7 +34117,7 @@
       </c>
       <c r="V18" s="2">
         <f>2/(1/bcf_1_edited!T18+1/bcf_1_edited!U18)*(heads_1!V19-heads_1!W19)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="W18" s="2">
         <f>2/(1/bcf_1_edited!U18+1/bcf_1_edited!V18)*(heads_1!W19-heads_1!X19)/100</f>
@@ -34129,11 +34129,11 @@
       </c>
       <c r="Y18" s="2">
         <f>2/(1/bcf_1_edited!W18+1/bcf_1_edited!X18)*(heads_1!Y19-heads_1!Z19)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="Z18" s="2">
         <f>2/(1/bcf_1_edited!X18+1/bcf_1_edited!Y18)*(heads_1!Z19-heads_1!AA19)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
@@ -34147,11 +34147,11 @@
       </c>
       <c r="D19" s="2">
         <f>2/(1/bcf_1_edited!B19+1/bcf_1_edited!C19)*(heads_1!D20-heads_1!E20)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="E19" s="2">
         <f>2/(1/bcf_1_edited!C19+1/bcf_1_edited!D19)*(heads_1!E20-heads_1!F20)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="F19" s="2">
         <f>2/(1/bcf_1_edited!D19+1/bcf_1_edited!E19)*(heads_1!F20-heads_1!G20)/100</f>
@@ -34159,7 +34159,7 @@
       </c>
       <c r="G19" s="2">
         <f>2/(1/bcf_1_edited!E19+1/bcf_1_edited!F19)*(heads_1!G20-heads_1!H20)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="H19" s="2">
         <f>2/(1/bcf_1_edited!F19+1/bcf_1_edited!G19)*(heads_1!H20-heads_1!I20)/100</f>
@@ -34167,19 +34167,19 @@
       </c>
       <c r="I19" s="2">
         <f>2/(1/bcf_1_edited!G19+1/bcf_1_edited!H19)*(heads_1!I20-heads_1!J20)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="J19" s="2">
         <f>2/(1/bcf_1_edited!H19+1/bcf_1_edited!I19)*(heads_1!J20-heads_1!K20)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="K19" s="2">
         <f>2/(1/bcf_1_edited!I19+1/bcf_1_edited!J19)*(heads_1!K20-heads_1!L20)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="L19" s="2">
         <f>2/(1/bcf_1_edited!J19+1/bcf_1_edited!K19)*(heads_1!L20-heads_1!M20)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M19" s="2">
         <f>2/(1/bcf_1_edited!K19+1/bcf_1_edited!L19)*(heads_1!M20-heads_1!N20)/100</f>
@@ -34199,19 +34199,19 @@
       </c>
       <c r="Q19" s="2">
         <f>2/(1/bcf_1_edited!O19+1/bcf_1_edited!P19)*(heads_1!Q20-heads_1!R20)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R19" s="2">
         <f>2/(1/bcf_1_edited!P19+1/bcf_1_edited!Q19)*(heads_1!R20-heads_1!S20)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="S19" s="2">
         <f>2/(1/bcf_1_edited!Q19+1/bcf_1_edited!R19)*(heads_1!S20-heads_1!T20)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="T19" s="2">
         <f>2/(1/bcf_1_edited!R19+1/bcf_1_edited!S19)*(heads_1!T20-heads_1!U20)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="U19" s="2">
         <f>2/(1/bcf_1_edited!S19+1/bcf_1_edited!T19)*(heads_1!U20-heads_1!V20)/100</f>
@@ -34219,7 +34219,7 @@
       </c>
       <c r="V19" s="2">
         <f>2/(1/bcf_1_edited!T19+1/bcf_1_edited!U19)*(heads_1!V20-heads_1!W20)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="W19" s="2">
         <f>2/(1/bcf_1_edited!U19+1/bcf_1_edited!V19)*(heads_1!W20-heads_1!X20)/100</f>
@@ -34227,11 +34227,11 @@
       </c>
       <c r="X19" s="2">
         <f>2/(1/bcf_1_edited!V19+1/bcf_1_edited!W19)*(heads_1!X20-heads_1!Y20)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="Y19" s="2">
         <f>2/(1/bcf_1_edited!W19+1/bcf_1_edited!X19)*(heads_1!Y20-heads_1!Z20)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="Z19" s="2">
         <f>2/(1/bcf_1_edited!X19+1/bcf_1_edited!Y19)*(heads_1!Z20-heads_1!AA20)/100</f>
@@ -34249,11 +34249,11 @@
       </c>
       <c r="D20" s="2">
         <f>2/(1/bcf_1_edited!B20+1/bcf_1_edited!C20)*(heads_1!D21-heads_1!E21)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="E20" s="2">
         <f>2/(1/bcf_1_edited!C20+1/bcf_1_edited!D20)*(heads_1!E21-heads_1!F21)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="F20" s="2">
         <f>2/(1/bcf_1_edited!D20+1/bcf_1_edited!E20)*(heads_1!F21-heads_1!G21)/100</f>
@@ -34269,19 +34269,19 @@
       </c>
       <c r="I20" s="2">
         <f>2/(1/bcf_1_edited!G20+1/bcf_1_edited!H20)*(heads_1!I21-heads_1!J21)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="J20" s="2">
         <f>2/(1/bcf_1_edited!H20+1/bcf_1_edited!I20)*(heads_1!J21-heads_1!K21)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="K20" s="2">
         <f>2/(1/bcf_1_edited!I20+1/bcf_1_edited!J20)*(heads_1!K21-heads_1!L21)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="L20" s="2">
         <f>2/(1/bcf_1_edited!J20+1/bcf_1_edited!K20)*(heads_1!L21-heads_1!M21)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M20" s="2">
         <f>2/(1/bcf_1_edited!K20+1/bcf_1_edited!L20)*(heads_1!M21-heads_1!N21)/100</f>
@@ -34301,19 +34301,19 @@
       </c>
       <c r="Q20" s="2">
         <f>2/(1/bcf_1_edited!O20+1/bcf_1_edited!P20)*(heads_1!Q21-heads_1!R21)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R20" s="2">
         <f>2/(1/bcf_1_edited!P20+1/bcf_1_edited!Q20)*(heads_1!R21-heads_1!S21)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="S20" s="2">
         <f>2/(1/bcf_1_edited!Q20+1/bcf_1_edited!R20)*(heads_1!S21-heads_1!T21)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="T20" s="2">
         <f>2/(1/bcf_1_edited!R20+1/bcf_1_edited!S20)*(heads_1!T21-heads_1!U21)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="U20" s="2">
         <f>2/(1/bcf_1_edited!S20+1/bcf_1_edited!T20)*(heads_1!U21-heads_1!V21)/100</f>
@@ -34329,11 +34329,11 @@
       </c>
       <c r="X20" s="2">
         <f>2/(1/bcf_1_edited!V20+1/bcf_1_edited!W20)*(heads_1!X21-heads_1!Y21)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.0999999999999908E-3</v>
       </c>
       <c r="Y20" s="2">
         <f>2/(1/bcf_1_edited!W20+1/bcf_1_edited!X20)*(heads_1!Y21-heads_1!Z21)/100</f>
-        <v>2.0999999999999908E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="Z20" s="2">
         <f>2/(1/bcf_1_edited!X20+1/bcf_1_edited!Y20)*(heads_1!Z21-heads_1!AA21)/100</f>
@@ -34379,11 +34379,11 @@
       </c>
       <c r="K21" s="2">
         <f>2/(1/bcf_1_edited!I21+1/bcf_1_edited!J21)*(heads_1!K22-heads_1!L22)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L21" s="2">
         <f>2/(1/bcf_1_edited!J21+1/bcf_1_edited!K21)*(heads_1!L22-heads_1!M22)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M21" s="2">
         <f>2/(1/bcf_1_edited!K21+1/bcf_1_edited!L21)*(heads_1!M22-heads_1!N22)/100</f>
@@ -34403,11 +34403,11 @@
       </c>
       <c r="Q21" s="2">
         <f>2/(1/bcf_1_edited!O21+1/bcf_1_edited!P21)*(heads_1!Q22-heads_1!R22)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R21" s="2">
         <f>2/(1/bcf_1_edited!P21+1/bcf_1_edited!Q21)*(heads_1!R22-heads_1!S22)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S21" s="2">
         <f>2/(1/bcf_1_edited!Q21+1/bcf_1_edited!R21)*(heads_1!S22-heads_1!T22)/100</f>
@@ -34481,11 +34481,11 @@
       </c>
       <c r="K22" s="2">
         <f>2/(1/bcf_1_edited!I22+1/bcf_1_edited!J22)*(heads_1!K23-heads_1!L23)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L22" s="2">
         <f>2/(1/bcf_1_edited!J22+1/bcf_1_edited!K22)*(heads_1!L23-heads_1!M23)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M22" s="2">
         <f>2/(1/bcf_1_edited!K22+1/bcf_1_edited!L22)*(heads_1!M23-heads_1!N23)/100</f>
@@ -34505,11 +34505,11 @@
       </c>
       <c r="Q22" s="2">
         <f>2/(1/bcf_1_edited!O22+1/bcf_1_edited!P22)*(heads_1!Q23-heads_1!R23)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R22" s="2">
         <f>2/(1/bcf_1_edited!P22+1/bcf_1_edited!Q22)*(heads_1!R23-heads_1!S23)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S22" s="2">
         <f>2/(1/bcf_1_edited!Q22+1/bcf_1_edited!R22)*(heads_1!S23-heads_1!T23)/100</f>
@@ -34583,11 +34583,11 @@
       </c>
       <c r="K23" s="2">
         <f>2/(1/bcf_1_edited!I23+1/bcf_1_edited!J23)*(heads_1!K24-heads_1!L24)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L23" s="2">
         <f>2/(1/bcf_1_edited!J23+1/bcf_1_edited!K23)*(heads_1!L24-heads_1!M24)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M23" s="2">
         <f>2/(1/bcf_1_edited!K23+1/bcf_1_edited!L23)*(heads_1!M24-heads_1!N24)/100</f>
@@ -34607,11 +34607,11 @@
       </c>
       <c r="Q23" s="2">
         <f>2/(1/bcf_1_edited!O23+1/bcf_1_edited!P23)*(heads_1!Q24-heads_1!R24)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R23" s="2">
         <f>2/(1/bcf_1_edited!P23+1/bcf_1_edited!Q23)*(heads_1!R24-heads_1!S24)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S23" s="2">
         <f>2/(1/bcf_1_edited!Q23+1/bcf_1_edited!R23)*(heads_1!S24-heads_1!T24)/100</f>
@@ -34685,11 +34685,11 @@
       </c>
       <c r="K24" s="2">
         <f>2/(1/bcf_1_edited!I24+1/bcf_1_edited!J24)*(heads_1!K25-heads_1!L25)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L24" s="2">
         <f>2/(1/bcf_1_edited!J24+1/bcf_1_edited!K24)*(heads_1!L25-heads_1!M25)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M24" s="2">
         <f>2/(1/bcf_1_edited!K24+1/bcf_1_edited!L24)*(heads_1!M25-heads_1!N25)/100</f>
@@ -34709,11 +34709,11 @@
       </c>
       <c r="Q24" s="2">
         <f>2/(1/bcf_1_edited!O24+1/bcf_1_edited!P24)*(heads_1!Q25-heads_1!R25)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R24" s="2">
         <f>2/(1/bcf_1_edited!P24+1/bcf_1_edited!Q24)*(heads_1!R25-heads_1!S25)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S24" s="2">
         <f>2/(1/bcf_1_edited!Q24+1/bcf_1_edited!R24)*(heads_1!S25-heads_1!T25)/100</f>
@@ -34787,11 +34787,11 @@
       </c>
       <c r="K25" s="2">
         <f>2/(1/bcf_1_edited!I25+1/bcf_1_edited!J25)*(heads_1!K26-heads_1!L26)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L25" s="2">
         <f>2/(1/bcf_1_edited!J25+1/bcf_1_edited!K25)*(heads_1!L26-heads_1!M26)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M25" s="2">
         <f>2/(1/bcf_1_edited!K25+1/bcf_1_edited!L25)*(heads_1!M26-heads_1!N26)/100</f>
@@ -34811,11 +34811,11 @@
       </c>
       <c r="Q25" s="2">
         <f>2/(1/bcf_1_edited!O25+1/bcf_1_edited!P25)*(heads_1!Q26-heads_1!R26)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R25" s="2">
         <f>2/(1/bcf_1_edited!P25+1/bcf_1_edited!Q25)*(heads_1!R26-heads_1!S26)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S25" s="2">
         <f>2/(1/bcf_1_edited!Q25+1/bcf_1_edited!R25)*(heads_1!S26-heads_1!T26)/100</f>
@@ -34889,11 +34889,11 @@
       </c>
       <c r="K26" s="2">
         <f>2/(1/bcf_1_edited!I26+1/bcf_1_edited!J26)*(heads_1!K27-heads_1!L27)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L26" s="2">
         <f>2/(1/bcf_1_edited!J26+1/bcf_1_edited!K26)*(heads_1!L27-heads_1!M27)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M26" s="2">
         <f>2/(1/bcf_1_edited!K26+1/bcf_1_edited!L26)*(heads_1!M27-heads_1!N27)/100</f>
@@ -34913,11 +34913,11 @@
       </c>
       <c r="Q26" s="2">
         <f>2/(1/bcf_1_edited!O26+1/bcf_1_edited!P26)*(heads_1!Q27-heads_1!R27)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R26" s="2">
         <f>2/(1/bcf_1_edited!P26+1/bcf_1_edited!Q26)*(heads_1!R27-heads_1!S27)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S26" s="2">
         <f>2/(1/bcf_1_edited!Q26+1/bcf_1_edited!R26)*(heads_1!S27-heads_1!T27)/100</f>
@@ -34991,11 +34991,11 @@
       </c>
       <c r="K27" s="2">
         <f>2/(1/bcf_1_edited!I27+1/bcf_1_edited!J27)*(heads_1!K28-heads_1!L28)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="L27" s="2">
         <f>2/(1/bcf_1_edited!J27+1/bcf_1_edited!K27)*(heads_1!L28-heads_1!M28)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="M27" s="2">
         <f>2/(1/bcf_1_edited!K27+1/bcf_1_edited!L27)*(heads_1!M28-heads_1!N28)/100</f>
@@ -35015,11 +35015,11 @@
       </c>
       <c r="Q27" s="2">
         <f>2/(1/bcf_1_edited!O27+1/bcf_1_edited!P27)*(heads_1!Q28-heads_1!R28)/100</f>
-        <v>1.9999999999999931E-3</v>
+        <v>2.1000000000000085E-3</v>
       </c>
       <c r="R27" s="2">
         <f>2/(1/bcf_1_edited!P27+1/bcf_1_edited!Q27)*(heads_1!R28-heads_1!S28)/100</f>
-        <v>2.1000000000000085E-3</v>
+        <v>1.9999999999999931E-3</v>
       </c>
       <c r="S27" s="2">
         <f>2/(1/bcf_1_edited!Q27+1/bcf_1_edited!R27)*(heads_1!S28-heads_1!T28)/100</f>
@@ -35063,7 +35063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B7FEA8-679C-6245-B574-9BBD7BB6F993}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>

--- a/Working/HW2_BoxModel_manual/starter_code/HW_02_visualization_example.xlsx
+++ b/Working/HW2_BoxModel_manual/starter_code/HW_02_visualization_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\starl\GW_Modelling\homework-starliviakaska\Working\HW2_BoxModel_manual\starter_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0679F4-58C1-4AAD-99C5-05FFEAF85B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6161EF-4FB2-4895-96DB-72BE5DBDAF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{E797DA87-9764-CF40-B10D-4CBD1F0C2290}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{E797DA87-9764-CF40-B10D-4CBD1F0C2290}"/>
   </bookViews>
   <sheets>
     <sheet name="bcf_1_edited" sheetId="3" r:id="rId1"/>
@@ -27360,7 +27360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520DF9AE-552C-DA41-ACC0-54A27029221C}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -32392,7 +32392,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B181C23-F43C-6848-921C-DFC38BE5DD7E}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -35063,7 +35065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B7FEA8-679C-6245-B574-9BBD7BB6F993}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
